--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE01BE5-8A97-5446-828D-180A72A608A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD761B3A-A2F0-BC47-90D8-3ACCEADD99C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="217">
   <si>
     <t>connection</t>
   </si>
@@ -286,12 +286,6 @@
     <t>[fraction]</t>
   </si>
   <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
     <t>hr24</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t>Plant13</t>
   </si>
   <si>
-    <t>PREPA 2017 Report</t>
-  </si>
-  <si>
     <t>Estadisticas, Enero2016, Febrero2016, Marzo2016</t>
   </si>
   <si>
@@ -514,21 +505,6 @@
     <t>https://iea-etsap.org/E-TechDS/PDF/E12_el-t&amp;d_KV_Apr2014_GSOK.pdf</t>
   </si>
   <si>
-    <t>file:///C:/Users/cntrev/Documents/Capstone%20CE%204990/Transmission/2015%20financials.pdf</t>
-  </si>
-  <si>
-    <t>https://www.aeepr.com/INVESTORS/DOCS/Financial%20Information/Annual%20Reports/PR%20Electric%20Power%20Authority%20FS%20with%20Independent%20Auditors%20Report_6_30_2013_.pdf</t>
-  </si>
-  <si>
-    <t>http://energia.pr.gov/datos/consumo-total-en-millones-de-kwh/</t>
-  </si>
-  <si>
-    <t>PREPA 2013 Report</t>
-  </si>
-  <si>
-    <t>PREPA Website - Operational Profile, Accessed 12/31/2017</t>
-  </si>
-  <si>
     <t>https://www.aeepr.com/Documentos/Ley57/Generaci%C3%B3n%20Diaria%20Enero%202016.pdf</t>
   </si>
   <si>
@@ -703,10 +679,13 @@
     <t>10% discount rate Virginia</t>
   </si>
   <si>
-    <t>https://www.eia.gov/state/?sid=VA#tabs-2</t>
-  </si>
-  <si>
-    <t>https://github.com/coopercenter/EO43/</t>
+    <t>https://www.eia.gov/state/?sid=VA#tabs-2 https://github.com/coopercenter/EO43/</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>offpeak</t>
   </si>
 </sst>
 </file>
@@ -748,18 +727,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,9 +754,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -801,26 +773,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1119,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1129,22 +1098,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1170,201 +1139,186 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>223</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>158</v>
+        <v>97</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" t="s">
-        <v>161</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>166</v>
+        <v>139</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>218</v>
+        <v>140</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>167</v>
+        <v>141</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>168</v>
+        <v>142</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1380,8 +1334,7 @@
     <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId12" location="tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
-    <hyperlink ref="G4" r:id="rId13" xr:uid="{00BEBD39-0F02-B14B-8DD4-4A7E54E26B23}"/>
+    <hyperlink ref="E4" r:id="rId12" location="tabs-2" display="https://www.eia.gov/state/?sid=VA#tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1392,7 +1345,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1403,741 +1356,741 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="B24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
+      <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
+  <conditionalFormatting sqref="D19:H28 D3:H15">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2157,7 +2110,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2172,697 +2125,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="8">
+        <v>91.4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
+        <v>75</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="8">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="8">
+        <v>29.9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="9">
-        <v>91.4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="9">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6">
+      <c r="B5" s="8">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="8">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="8">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
+        <v>55</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="8">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34.6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="8">
+        <v>78.5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="8">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="5">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5">
+        <v>45</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="8">
+        <v>93</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="5">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="19">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19">
+        <v>85</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
+        <v>15</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="19">
+        <v>56</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="19">
+        <v>25.3</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20">
+        <v>45</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="19">
+        <v>85</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="22">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19">
         <v>75</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="9">
-        <v>76</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="9">
-        <v>29.9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="I16" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="19">
+        <v>87</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="22">
+        <v>51.7</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19">
+        <v>55</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="19">
+        <v>87</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="22">
+        <v>51.7</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19">
+        <v>55</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="21">
+        <v>87</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="19">
+        <v>62.02</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
+        <v>55</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="19">
+        <v>30</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="19">
+        <v>42.47</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20">
+        <v>55</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="19">
+        <v>22</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19">
+        <v>30</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="19">
+        <v>31</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19">
+        <v>30</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="9">
-        <v>80</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="9">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7">
-        <v>50</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="9">
-        <v>89</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="9">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8">
+        <v>85</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <v>15</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="5">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <v>45</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="9">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="8">
+        <v>54.17</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5">
         <v>55</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="9">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="9">
-        <v>34.6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7">
-        <v>65</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="9">
-        <v>78.5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="9">
-        <v>34.1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7">
-        <v>65</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="9">
-        <v>63</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="I25" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="5">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
+        <v>55</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="5">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6">
-        <v>100</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="9">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="6">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6">
-        <v>45</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="9">
-        <v>93</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="9">
-        <v>45.5</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6">
-        <v>55</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="E27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <v>30</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="5">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6">
+      <c r="E28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6">
-        <v>30</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22">
-        <v>50</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
-        <v>85</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
-        <v>15</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22">
-        <v>56</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="22">
-        <v>25.3</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23">
-        <v>45</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="22">
-        <v>85</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="25">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
-        <v>75</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="22">
-        <v>87</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="25">
-        <v>51.7</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22">
-        <v>55</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="22">
-        <v>87</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="25">
-        <v>51.7</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22">
-        <v>55</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="24">
-        <v>87</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="22">
-        <v>62.02</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22">
-        <v>55</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22">
-        <v>30</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="22">
-        <v>42.47</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23">
-        <v>55</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22">
-        <v>22</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="22">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22">
-        <v>30</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="22">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
-        <v>30</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9">
-        <v>85</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
-        <v>15</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
-        <v>45</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="10">
-        <v>87</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="9">
-        <v>54.17</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6">
-        <v>55</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="9">
-        <v>37.6</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <v>55</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
-        <v>30</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <v>30</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>195</v>
+      <c r="I28" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2829,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2891,25 +2844,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2937,564 +2890,564 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>75.97</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.919</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>19.599999999999998</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>75.97</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.919</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>24.633333333333336</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>19.599999999999998</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2.8380000000000001</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>30.57</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>24.633333333333336</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>34.31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>30.57</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>45.56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>34.31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="5">
+        <v>3935</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>45.56</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>425.4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="6">
-        <v>3935</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="G11" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>425.4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
+        <v>42</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="24">
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="G13" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="B14" s="20">
+        <v>1284</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="20">
+        <v>32.1</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="20">
+        <v>3749</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="20">
+        <v>112</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1.67</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="20">
+        <v>3644</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="20">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1.39</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="20">
+        <v>952</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="20">
+        <v>11.33</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="20">
+        <v>952</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="20">
+        <v>11.33</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="23">
+        <v>612.6</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="23">
+        <v>11</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="20">
+        <v>188.3</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1.944</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="20">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E21" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="20">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="G21" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1494</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="20">
         <v>42</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="E22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="23">
+      <c r="G22" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="6">
         <v>1284</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="C23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="6">
         <v>32.1</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="24">
         <v>0</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="G23" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="6">
         <v>3749</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="6">
         <v>112</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="E24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="24">
         <v>1.67</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="23">
-        <v>3644</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="23">
-        <v>33</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1.39</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="23">
-        <v>952</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="23">
-        <v>11.33</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="23">
-        <v>952</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="23">
-        <v>11.33</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="26">
-        <v>612.6</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="G24" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="6">
+        <v>860.9</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="6">
         <v>11</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="23">
+      <c r="E25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="24">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="23">
-        <v>188.3</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="G25" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="6">
+        <v>305.2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="6">
         <v>12</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="E26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="24">
         <v>1.944</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="23">
+      <c r="G26" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6">
         <v>1060</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="6">
         <v>13</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="E27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="23">
+      <c r="G27" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="6">
         <v>1494</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="6">
         <v>42</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="E28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1284</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="7">
-        <v>32.1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3749</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="7">
-        <v>112</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="27">
-        <v>1.67</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="7">
-        <v>860.9</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="7">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="27">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="7">
-        <v>305.2</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="7">
-        <v>12</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="27">
-        <v>1.944</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="7">
-        <v>13</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1494</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="7">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>195</v>
+      <c r="G28" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3507,7 +3460,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F28"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3522,25 +3475,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3554,8 +3507,8 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>148</v>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>
@@ -3568,281 +3521,281 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.93</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9">
         <v>102.7</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22">
+        <v>290</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25">
-        <v>290</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="25">
-        <v>0.93</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0.93</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="22">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22">
+        <v>7056</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25">
-        <v>705.6</v>
-      </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25">
-        <v>71.64</v>
-      </c>
-      <c r="G22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
+        <v>716.4</v>
+      </c>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
+      <c r="A23" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
+      <c r="A24" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D24">
         <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>136</v>
+      <c r="C25" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27">
-        <v>705.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="3">
-        <v>71.64</v>
+      <c r="F28" s="2">
+        <v>716.4</v>
       </c>
     </row>
   </sheetData>
@@ -3853,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3867,16 +3820,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3884,8 +3837,8 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>148</v>
+      <c r="B2" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3895,339 +3848,157 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3310</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2170</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4036</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="12">
+        <v>13134</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="14">
+        <v>212</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="12">
+        <v>102</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12">
+        <v>378</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="12">
+        <v>85</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="26">
+        <v>170</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="13">
-        <v>454</v>
-      </c>
-      <c r="C3" s="14">
-        <v>2002</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="13">
-        <v>378</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1973</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="13">
-        <v>247.5</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1997</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="13">
-        <v>220</v>
-      </c>
-      <c r="C6" s="14">
-        <v>2009</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="B13" s="26">
         <v>296</v>
       </c>
-      <c r="C7" s="14">
-        <v>1975</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="15">
-        <v>296</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1976</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="15">
-        <v>440</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2008</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="13">
-        <v>900</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1971</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="13">
-        <v>85</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1960</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="13">
-        <v>85</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1962</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="13">
-        <v>410</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1969</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="13">
-        <v>410</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1972</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="15">
-        <v>170</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1959</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="15">
-        <v>200</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1964</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="15">
-        <v>100</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1965</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="15">
-        <v>100</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1966</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="15">
-        <v>216</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1967</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="15">
-        <v>216</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1968</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="13">
-        <v>100</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1953</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="C22" s="14">
-        <v>2015</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="13">
-        <v>507</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="C13" s="13">
         <v>2000</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="16">
-        <v>22.1</v>
-      </c>
-      <c r="C24" s="17">
-        <v>2012</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="16">
-        <v>30</v>
-      </c>
-      <c r="C25" s="17">
-        <v>2015</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="13">
-        <v>102</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2012</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>143</v>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4252,10 +4023,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4282,7 +4053,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4294,19 +4065,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4328,1635 +4099,1635 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
+      <c r="A3" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>184</v>
+        <v>215</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>95</v>
+      <c r="A4" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>95</v>
+      <c r="A5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>186</v>
+        <v>215</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
+      <c r="A6" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>187</v>
+        <v>215</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
+      <c r="A7" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>188</v>
+        <v>215</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>95</v>
+      <c r="A8" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>189</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>95</v>
+      <c r="A9" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>95</v>
+      <c r="A10" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>191</v>
+        <v>215</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>95</v>
+      <c r="A11" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>192</v>
+        <v>215</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>95</v>
+      <c r="A12" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D12">
         <v>1.60166683138</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>95</v>
+      <c r="A13" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D13">
         <v>2.95581809344</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>95</v>
+      <c r="A14" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D14">
         <v>3.7850790856600001</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>95</v>
+      <c r="A15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D15">
         <v>3.7761824652699998</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>95</v>
+      <c r="A16" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D16">
         <v>3.4941576425399998</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>95</v>
+      <c r="A17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D17">
         <v>2.8292392133100002</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>95</v>
+      <c r="A18" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D18">
         <v>2.31085050602</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
+      <c r="A19" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D19">
         <v>1.6195855478600001</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
+      <c r="A20" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D20">
         <v>0.66482724319599995</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
+      <c r="A21" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>95</v>
+      <c r="A22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
+      <c r="A23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>95</v>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>95</v>
+      <c r="A25" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>95</v>
+      <c r="A26" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>95</v>
+      <c r="A27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>184</v>
+        <v>216</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
+      <c r="A28" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>95</v>
+      <c r="A29" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>186</v>
+        <v>216</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>95</v>
+      <c r="A30" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>187</v>
+        <v>216</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>95</v>
+      <c r="A31" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>188</v>
+        <v>216</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>95</v>
+      <c r="A32" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>189</v>
+        <v>216</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>95</v>
+      <c r="A33" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>190</v>
+        <v>216</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>95</v>
+      <c r="A34" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>191</v>
+        <v>216</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>95</v>
+      <c r="A35" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>192</v>
+        <v>216</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>95</v>
+      <c r="A36" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D36">
         <v>1.5458351067</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>95</v>
+      <c r="A37" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D37">
         <v>2.4637406089799998</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>95</v>
+      <c r="A38" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D38">
         <v>3.00512030807</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>95</v>
+      <c r="A39" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D39">
         <v>3.5308931214800001</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>95</v>
+      <c r="A40" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D40">
         <v>3.69605507635</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>95</v>
+      <c r="A41" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D41">
         <v>3.3774587455399998</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>95</v>
+      <c r="A42" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D42">
         <v>2.7769065497900001</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>95</v>
+      <c r="A43" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D43">
         <v>1.95868836497</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>95</v>
+      <c r="A44" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D44">
         <v>1.0106574399199999</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>95</v>
+      <c r="A45" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
+      <c r="A46" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
+      <c r="A47" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>95</v>
+      <c r="A48" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>95</v>
+      <c r="A49" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>95</v>
+      <c r="A50" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>85</v>
+        <v>216</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>96</v>
+      <c r="A51" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>184</v>
+        <v>215</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>96</v>
+      <c r="A52" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>96</v>
+      <c r="A53" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>186</v>
+        <v>215</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>96</v>
+      <c r="A54" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>187</v>
+        <v>215</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>96</v>
+      <c r="A55" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>188</v>
+        <v>215</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>96</v>
+      <c r="A56" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>189</v>
+        <v>215</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>96</v>
+      <c r="A57" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>96</v>
+      <c r="A58" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>191</v>
+        <v>215</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>96</v>
+      <c r="A59" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>192</v>
+        <v>215</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>96</v>
+      <c r="A60" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D60">
         <v>1.5905843713600001</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>96</v>
+      <c r="A61" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D61">
         <v>1.96580702607</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>96</v>
+      <c r="A62" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D62">
         <v>2.0734215959900002</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>96</v>
+      <c r="A63" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D63">
         <v>1.9751479163200001</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>96</v>
+      <c r="A64" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D64">
         <v>1.86108929812</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>96</v>
+      <c r="A65" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D65">
         <v>1.5555752169499999</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>96</v>
+      <c r="A66" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D66">
         <v>1.4613173328</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>96</v>
+      <c r="A67" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D67">
         <v>1.5585260732399999</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>96</v>
+      <c r="A68" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D68">
         <v>1.4215414641899999</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>96</v>
+      <c r="A69" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D69">
         <v>1.1530588855199999</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>96</v>
+      <c r="A70" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D70">
         <v>0.95588318613500001</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>96</v>
+      <c r="A71" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D71">
         <v>0.71502453780499997</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>96</v>
+      <c r="A72" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D72">
         <v>0.63309777596200001</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>96</v>
+      <c r="A73" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D73">
         <v>0.57011478292399997</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>96</v>
+      <c r="A74" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="D74">
         <v>0.43639495105100001</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>96</v>
+      <c r="A75" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>184</v>
+        <v>216</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>96</v>
+      <c r="A76" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>96</v>
+      <c r="A77" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>186</v>
+        <v>216</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>96</v>
+      <c r="A78" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>187</v>
+        <v>216</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>96</v>
+      <c r="A79" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>188</v>
+        <v>216</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>96</v>
+      <c r="A80" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>189</v>
+        <v>216</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>96</v>
+      <c r="A81" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>190</v>
+        <v>216</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>96</v>
+      <c r="A82" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>191</v>
+        <v>216</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>96</v>
+      <c r="A83" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>192</v>
+        <v>216</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>96</v>
+      <c r="A84" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D84">
         <v>1.7770759889000001</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>96</v>
+      <c r="A85" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D85">
         <v>1.94190941189</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>96</v>
+      <c r="A86" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D86">
         <v>1.9646325597500001</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>96</v>
+      <c r="A87" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D87">
         <v>1.9102379085200001</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>96</v>
+      <c r="A88" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D88">
         <v>1.8179456867899999</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>96</v>
+      <c r="A89" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D89">
         <v>1.81966855524</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>96</v>
+      <c r="A90" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D90">
         <v>1.8376376328499999</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>96</v>
+      <c r="A91" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D91">
         <v>1.6965337710899999</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>96</v>
+      <c r="A92" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D92">
         <v>1.7009312804000001</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>96</v>
+      <c r="A93" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D93">
         <v>1.3156820974500001</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>96</v>
+      <c r="A94" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D94">
         <v>0.84444574668700001</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>96</v>
+      <c r="A95" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D95">
         <v>0.49803910411500002</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>96</v>
+      <c r="A96" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D96">
         <v>0.18415488182100001</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>96</v>
+      <c r="A97" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D97">
         <v>0.20710885994700001</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>96</v>
+      <c r="A98" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>85</v>
+        <v>216</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="D98">
         <v>0.261560949057</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5741,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5980,14 +5751,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>178</v>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5998,29 +5769,29 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B3">
-        <v>0.53</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B4">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +5804,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6043,14 +5814,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>178</v>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6061,15 +5832,15 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B3">
-        <v>3.9199999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C3">
         <v>4.1667000000000003E-2</v>
@@ -6077,10 +5848,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B4">
-        <v>3.7499999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C4">
         <v>4.1667000000000003E-2</v>
@@ -6088,10 +5859,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B5">
-        <v>3.6400000000000002E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="C5">
         <v>4.1667000000000003E-2</v>
@@ -6099,10 +5870,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B6">
-        <v>3.5700000000000003E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="C6">
         <v>4.1667000000000003E-2</v>
@@ -6110,10 +5881,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B7">
-        <v>3.5700000000000003E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="C7">
         <v>4.1667000000000003E-2</v>
@@ -6121,10 +5892,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B8">
-        <v>3.6900000000000002E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="C8">
         <v>4.1667000000000003E-2</v>
@@ -6132,10 +5903,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B9">
-        <v>3.8600000000000002E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="C9">
         <v>4.1667000000000003E-2</v>
@@ -6143,10 +5914,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B10">
-        <v>3.85E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="C10">
         <v>4.1667000000000003E-2</v>
@@ -6154,10 +5925,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B11">
-        <v>4.0500000000000001E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="C11">
         <v>4.1667000000000003E-2</v>
@@ -6168,7 +5939,7 @@
         <v>49</v>
       </c>
       <c r="B12">
-        <v>4.2099999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C12">
         <v>4.1667000000000003E-2</v>
@@ -6179,7 +5950,7 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>4.3099999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="C13">
         <v>4.1667000000000003E-2</v>
@@ -6201,7 +5972,7 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <v>4.3999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C15">
         <v>4.1667000000000003E-2</v>
@@ -6212,7 +5983,7 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>4.3900000000000002E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="C16">
         <v>4.1667000000000003E-2</v>
@@ -6223,7 +5994,7 @@
         <v>54</v>
       </c>
       <c r="B17">
-        <v>4.3799999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C17">
         <v>4.1667000000000003E-2</v>
@@ -6234,7 +6005,7 @@
         <v>55</v>
       </c>
       <c r="B18">
-        <v>4.3700000000000003E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="C18">
         <v>4.1667000000000003E-2</v>
@@ -6245,7 +6016,7 @@
         <v>56</v>
       </c>
       <c r="B19">
-        <v>4.36E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="C19">
         <v>4.1667000000000003E-2</v>
@@ -6256,7 +6027,7 @@
         <v>57</v>
       </c>
       <c r="B20">
-        <v>4.3099999999999999E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="C20">
         <v>4.1667000000000003E-2</v>
@@ -6267,7 +6038,7 @@
         <v>58</v>
       </c>
       <c r="B21">
-        <v>4.4999999999999998E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="C21">
         <v>4.1667000000000003E-2</v>
@@ -6278,7 +6049,7 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>4.7E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="C22">
         <v>4.1667000000000003E-2</v>
@@ -6289,7 +6060,7 @@
         <v>60</v>
       </c>
       <c r="B23">
-        <v>4.6399999999999997E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="C23">
         <v>4.1667000000000003E-2</v>
@@ -6300,7 +6071,7 @@
         <v>61</v>
       </c>
       <c r="B24">
-        <v>4.58E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="C24">
         <v>4.1667000000000003E-2</v>
@@ -6311,7 +6082,7 @@
         <v>62</v>
       </c>
       <c r="B25">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="C25">
         <v>4.1667000000000003E-2</v>
@@ -6319,12 +6090,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4.159999999999997E-2</v>
-      </c>
-      <c r="C26" s="3">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="C26" s="2">
         <f>1-SUM(C3:C25)</f>
         <v>4.1658999999999891E-2</v>
       </c>
@@ -6339,7 +6110,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6355,37 +6126,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6426,149 +6197,149 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D3">
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="3">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.86</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2">
         <v>2084.1332580463013</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J3">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>0.4</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>688.39634941329859</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2">
         <v>323.88212908717634</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J5">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="3">
+        <v>175</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="1">
+        <v>175</v>
+      </c>
+      <c r="H6" s="2">
         <v>539.80354847862725</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J6">
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6577,192 +6348,192 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H8">
         <v>4531.3620000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H9">
         <v>7746.9369999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="J11">
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="J13">
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="J14">
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6773,10 +6544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6786,17 +6557,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>147</v>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,11 +6588,11 @@
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
-        <v>75.239999999999995</v>
+      <c r="B3">
+        <v>404.2</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6831,11 +6602,11 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
-        <v>66.999600000000001</v>
+      <c r="B4">
+        <v>431.1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6845,11 +6616,11 @@
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
-        <v>66.103200000000001</v>
+      <c r="B5">
+        <v>470.2</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6859,11 +6630,11 @@
       <c r="A6">
         <v>2031</v>
       </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
+      <c r="B6">
+        <v>520.70000000000005</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6873,11 +6644,11 @@
       <c r="A7">
         <v>2036</v>
       </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
+      <c r="B7">
+        <v>566.1</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6887,13 +6658,41 @@
       <c r="A8">
         <v>2041</v>
       </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
+      <c r="B8">
+        <v>612</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2046</v>
+      </c>
+      <c r="B9">
+        <v>657.9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2051</v>
+      </c>
+      <c r="B10">
+        <v>703.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -6907,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6918,16 +6717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6936,7 +6735,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -6947,58 +6746,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>3080</v>
+        <v>50000</v>
       </c>
       <c r="C3">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B4">
-        <v>3068</v>
+        <v>50000</v>
       </c>
       <c r="C4">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B5">
-        <v>2853</v>
+        <v>50000</v>
       </c>
       <c r="C5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B6">
-        <v>2853</v>
+        <v>50000</v>
       </c>
       <c r="C6">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7022,10 +6821,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7042,7 +6841,7 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7055,7 +6854,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7073,41 +6872,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>174</v>
+      <c r="L1" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7139,103 +6938,103 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>5.7</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>2.66</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3">
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>4.03</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>2.7</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>90.37</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>11.46</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>2.8</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>69.34</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7244,12 +7043,12 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7258,79 +7057,79 @@
         <v>39.51</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>7.19</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>3.05</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>67.58</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>7.62</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>2.0699999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="1">
+        <v>90</v>
+      </c>
+      <c r="F9">
         <v>63.3</v>
       </c>
       <c r="H9">
         <v>50.3</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7339,12 +7138,12 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7353,7 +7152,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7367,7 +7166,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7376,16 +7175,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7394,7 +7193,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -7404,13 +7203,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>3729</v>
+      </c>
+      <c r="C3">
         <v>2015</v>
       </c>
     </row>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077628C3-25EA-8645-A488-794B264BC5FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CDF7AF-A127-4C44-83E0-EA06614D577F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8960" yWindow="-21140" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
     <sheet name="Demand" sheetId="3" r:id="rId5"/>
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
-    <sheet name="DiscountRate" sheetId="5" r:id="rId7"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId8"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId9"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId10"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId11"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId12"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId13"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId14"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
+    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
+    <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId9"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId11"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId14"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId15"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId16"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="237">
   <si>
     <t>connection</t>
   </si>
@@ -658,9 +659,6 @@
     <t>[fr]</t>
   </si>
   <si>
-    <t>10% discount rate Virginia</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/state/?sid=VA#tabs-2 https://github.com/coopercenter/EO43/</t>
   </si>
   <si>
@@ -728,6 +726,27 @@
   </si>
   <si>
     <t>EIA</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>tech_rate</t>
+  </si>
+  <si>
+    <t>tech_rate_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC_WIND    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED_SOLPV   </t>
+  </si>
+  <si>
+    <t>8% discount rate Virginia</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1151,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1204,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,7 +1212,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1213,10 +1232,10 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,10 +1243,10 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,10 +1254,10 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1246,10 +1265,10 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1362,7 +1381,7 @@
         <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,6 +1412,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>3729</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -1727,10 +1803,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -1779,7 +1855,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>103</v>
@@ -1805,7 +1881,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>121</v>
@@ -1831,7 +1907,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>103</v>
@@ -2271,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -2590,7 +2666,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5">
         <v>95</v>
@@ -2609,7 +2685,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="5">
         <v>56</v>
@@ -2634,7 +2710,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
@@ -2650,7 +2726,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2703,7 +2779,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="16">
         <v>20</v>
@@ -2719,7 +2795,7 @@
         <v>100</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3076,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -3337,7 +3413,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3352,7 +3428,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -3371,7 +3447,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -3428,7 +3504,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="17">
         <v>3935</v>
@@ -3773,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -3940,7 +4016,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5">
         <v>0.01</v>
@@ -3954,7 +4030,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3981,7 +4057,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4159,11 +4235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M26" sqref="M26:M27"/>
     </sheetView>
   </sheetViews>
@@ -4213,7 +4289,7 @@
         <v>1985</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,7 +4325,7 @@
         <v>1980</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4291,7 +4367,7 @@
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4316,7 +4392,7 @@
         <v>1995</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,7 +4406,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4344,7 +4420,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,12 +4434,12 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>3568</v>
@@ -4372,12 +4448,12 @@
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <v>153</v>
@@ -4386,12 +4462,12 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>3200</v>
@@ -4400,7 +4476,7 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4450,7 +4526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E242"/>
   <sheetViews>
@@ -4505,7 +4581,7 @@
         <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>170</v>
@@ -4522,7 +4598,7 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>171</v>
@@ -4539,7 +4615,7 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>172</v>
@@ -4556,7 +4632,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>173</v>
@@ -4573,7 +4649,7 @@
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>174</v>
@@ -4590,7 +4666,7 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>175</v>
@@ -4607,7 +4683,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>176</v>
@@ -4624,7 +4700,7 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>177</v>
@@ -4641,7 +4717,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>178</v>
@@ -4658,7 +4734,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>49</v>
@@ -4675,7 +4751,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>50</v>
@@ -4692,7 +4768,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>51</v>
@@ -4709,7 +4785,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>52</v>
@@ -4726,7 +4802,7 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>53</v>
@@ -4743,7 +4819,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
@@ -4760,7 +4836,7 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>55</v>
@@ -4777,7 +4853,7 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>56</v>
@@ -4794,7 +4870,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>57</v>
@@ -4811,7 +4887,7 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>58</v>
@@ -4828,7 +4904,7 @@
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>59</v>
@@ -4845,7 +4921,7 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>60</v>
@@ -4862,7 +4938,7 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>61</v>
@@ -4879,7 +4955,7 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>62</v>
@@ -4896,7 +4972,7 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>83</v>
@@ -4913,7 +4989,7 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>170</v>
@@ -4930,7 +5006,7 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>171</v>
@@ -4947,7 +5023,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>172</v>
@@ -4964,7 +5040,7 @@
         <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>173</v>
@@ -4981,7 +5057,7 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>174</v>
@@ -4998,7 +5074,7 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>175</v>
@@ -5015,7 +5091,7 @@
         <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>176</v>
@@ -5032,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>177</v>
@@ -5049,7 +5125,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>178</v>
@@ -5066,7 +5142,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>49</v>
@@ -5083,7 +5159,7 @@
         <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>50</v>
@@ -5100,7 +5176,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>51</v>
@@ -5117,7 +5193,7 @@
         <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>52</v>
@@ -5134,7 +5210,7 @@
         <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>53</v>
@@ -5151,7 +5227,7 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>54</v>
@@ -5168,7 +5244,7 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>55</v>
@@ -5185,7 +5261,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>56</v>
@@ -5202,7 +5278,7 @@
         <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>57</v>
@@ -5219,7 +5295,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>58</v>
@@ -5236,7 +5312,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>59</v>
@@ -5253,7 +5329,7 @@
         <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>60</v>
@@ -5270,7 +5346,7 @@
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>61</v>
@@ -5287,7 +5363,7 @@
         <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>62</v>
@@ -5304,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>83</v>
@@ -5321,7 +5397,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>170</v>
@@ -5338,7 +5414,7 @@
         <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>171</v>
@@ -5355,7 +5431,7 @@
         <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>172</v>
@@ -5372,7 +5448,7 @@
         <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>173</v>
@@ -5389,7 +5465,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>174</v>
@@ -5406,7 +5482,7 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>175</v>
@@ -5423,7 +5499,7 @@
         <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>176</v>
@@ -5440,7 +5516,7 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>177</v>
@@ -5457,7 +5533,7 @@
         <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>178</v>
@@ -5474,7 +5550,7 @@
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>49</v>
@@ -5491,7 +5567,7 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>50</v>
@@ -5508,7 +5584,7 @@
         <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>51</v>
@@ -5525,7 +5601,7 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>52</v>
@@ -5542,7 +5618,7 @@
         <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>53</v>
@@ -5559,7 +5635,7 @@
         <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>54</v>
@@ -5576,7 +5652,7 @@
         <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>55</v>
@@ -5593,7 +5669,7 @@
         <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>56</v>
@@ -5610,7 +5686,7 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>57</v>
@@ -5627,7 +5703,7 @@
         <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>58</v>
@@ -5644,7 +5720,7 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>59</v>
@@ -5661,7 +5737,7 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>60</v>
@@ -5678,7 +5754,7 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>61</v>
@@ -5695,7 +5771,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>62</v>
@@ -5712,7 +5788,7 @@
         <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>83</v>
@@ -5729,7 +5805,7 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>170</v>
@@ -5746,7 +5822,7 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>171</v>
@@ -5763,7 +5839,7 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>172</v>
@@ -5780,7 +5856,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>173</v>
@@ -5797,7 +5873,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>174</v>
@@ -5814,7 +5890,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>175</v>
@@ -5831,7 +5907,7 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>176</v>
@@ -5848,7 +5924,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>177</v>
@@ -5865,7 +5941,7 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>178</v>
@@ -5882,7 +5958,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>49</v>
@@ -5899,7 +5975,7 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>50</v>
@@ -5916,7 +5992,7 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>51</v>
@@ -5933,7 +6009,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>52</v>
@@ -5950,7 +6026,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>53</v>
@@ -5967,7 +6043,7 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>54</v>
@@ -5984,7 +6060,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>55</v>
@@ -6001,7 +6077,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>56</v>
@@ -6018,7 +6094,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>57</v>
@@ -6035,7 +6111,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
@@ -6052,7 +6128,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
@@ -6069,7 +6145,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>60</v>
@@ -6086,7 +6162,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>61</v>
@@ -6103,7 +6179,7 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>62</v>
@@ -6120,7 +6196,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>83</v>
@@ -6137,7 +6213,7 @@
         <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>170</v>
@@ -6154,7 +6230,7 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>171</v>
@@ -6171,7 +6247,7 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>172</v>
@@ -6188,7 +6264,7 @@
         <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>173</v>
@@ -6205,7 +6281,7 @@
         <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>174</v>
@@ -6222,7 +6298,7 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>175</v>
@@ -6239,7 +6315,7 @@
         <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>176</v>
@@ -6256,7 +6332,7 @@
         <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>177</v>
@@ -6273,7 +6349,7 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>178</v>
@@ -6290,7 +6366,7 @@
         <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>49</v>
@@ -6307,7 +6383,7 @@
         <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>50</v>
@@ -6324,7 +6400,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>51</v>
@@ -6341,7 +6417,7 @@
         <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>52</v>
@@ -6358,7 +6434,7 @@
         <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>53</v>
@@ -6375,7 +6451,7 @@
         <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>54</v>
@@ -6392,7 +6468,7 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>55</v>
@@ -6409,7 +6485,7 @@
         <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>56</v>
@@ -6426,7 +6502,7 @@
         <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>57</v>
@@ -6443,7 +6519,7 @@
         <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>58</v>
@@ -6460,7 +6536,7 @@
         <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>59</v>
@@ -6477,7 +6553,7 @@
         <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>60</v>
@@ -6494,7 +6570,7 @@
         <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>61</v>
@@ -6511,7 +6587,7 @@
         <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>62</v>
@@ -6528,7 +6604,7 @@
         <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>83</v>
@@ -6545,7 +6621,7 @@
         <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>170</v>
@@ -6562,7 +6638,7 @@
         <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>171</v>
@@ -6579,7 +6655,7 @@
         <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>172</v>
@@ -6596,7 +6672,7 @@
         <v>94</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>173</v>
@@ -6613,7 +6689,7 @@
         <v>94</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>174</v>
@@ -6630,7 +6706,7 @@
         <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>175</v>
@@ -6647,7 +6723,7 @@
         <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>176</v>
@@ -6664,7 +6740,7 @@
         <v>94</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>177</v>
@@ -6681,7 +6757,7 @@
         <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>178</v>
@@ -6698,7 +6774,7 @@
         <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>49</v>
@@ -6715,7 +6791,7 @@
         <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>50</v>
@@ -6732,7 +6808,7 @@
         <v>94</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>51</v>
@@ -6749,7 +6825,7 @@
         <v>94</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>52</v>
@@ -6766,7 +6842,7 @@
         <v>94</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>53</v>
@@ -6783,7 +6859,7 @@
         <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>54</v>
@@ -6800,7 +6876,7 @@
         <v>94</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>55</v>
@@ -6817,7 +6893,7 @@
         <v>94</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>56</v>
@@ -6834,7 +6910,7 @@
         <v>94</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>57</v>
@@ -6851,7 +6927,7 @@
         <v>94</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>58</v>
@@ -6868,7 +6944,7 @@
         <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>59</v>
@@ -6885,7 +6961,7 @@
         <v>94</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>60</v>
@@ -6902,7 +6978,7 @@
         <v>94</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>61</v>
@@ -6919,7 +6995,7 @@
         <v>94</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>62</v>
@@ -6936,7 +7012,7 @@
         <v>94</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>83</v>
@@ -6953,7 +7029,7 @@
         <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>170</v>
@@ -6970,7 +7046,7 @@
         <v>94</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>171</v>
@@ -6987,7 +7063,7 @@
         <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>172</v>
@@ -7004,7 +7080,7 @@
         <v>94</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>173</v>
@@ -7021,7 +7097,7 @@
         <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>174</v>
@@ -7038,7 +7114,7 @@
         <v>94</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>175</v>
@@ -7055,7 +7131,7 @@
         <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>176</v>
@@ -7072,7 +7148,7 @@
         <v>94</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>177</v>
@@ -7089,7 +7165,7 @@
         <v>94</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>178</v>
@@ -7106,7 +7182,7 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>49</v>
@@ -7123,7 +7199,7 @@
         <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>50</v>
@@ -7140,7 +7216,7 @@
         <v>94</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>51</v>
@@ -7157,7 +7233,7 @@
         <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>52</v>
@@ -7174,7 +7250,7 @@
         <v>94</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>53</v>
@@ -7191,7 +7267,7 @@
         <v>94</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>54</v>
@@ -7208,7 +7284,7 @@
         <v>94</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>55</v>
@@ -7225,7 +7301,7 @@
         <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>56</v>
@@ -7242,7 +7318,7 @@
         <v>94</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>57</v>
@@ -7259,7 +7335,7 @@
         <v>94</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>58</v>
@@ -7276,7 +7352,7 @@
         <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>59</v>
@@ -7293,7 +7369,7 @@
         <v>94</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>60</v>
@@ -7310,7 +7386,7 @@
         <v>94</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>61</v>
@@ -7327,7 +7403,7 @@
         <v>94</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>62</v>
@@ -7344,7 +7420,7 @@
         <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>83</v>
@@ -7361,7 +7437,7 @@
         <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>170</v>
@@ -7378,7 +7454,7 @@
         <v>94</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>171</v>
@@ -7395,7 +7471,7 @@
         <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>172</v>
@@ -7412,7 +7488,7 @@
         <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>173</v>
@@ -7429,7 +7505,7 @@
         <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>174</v>
@@ -7446,7 +7522,7 @@
         <v>94</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>175</v>
@@ -7463,7 +7539,7 @@
         <v>94</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>176</v>
@@ -7480,7 +7556,7 @@
         <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>177</v>
@@ -7497,7 +7573,7 @@
         <v>94</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>178</v>
@@ -7514,7 +7590,7 @@
         <v>94</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>49</v>
@@ -7531,7 +7607,7 @@
         <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>50</v>
@@ -7548,7 +7624,7 @@
         <v>94</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>51</v>
@@ -7565,7 +7641,7 @@
         <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>52</v>
@@ -7582,7 +7658,7 @@
         <v>94</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>53</v>
@@ -7599,7 +7675,7 @@
         <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>54</v>
@@ -7616,7 +7692,7 @@
         <v>94</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>55</v>
@@ -7633,7 +7709,7 @@
         <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>56</v>
@@ -7650,7 +7726,7 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>57</v>
@@ -7667,7 +7743,7 @@
         <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>58</v>
@@ -7684,7 +7760,7 @@
         <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>59</v>
@@ -7701,7 +7777,7 @@
         <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>60</v>
@@ -7718,7 +7794,7 @@
         <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>61</v>
@@ -7735,7 +7811,7 @@
         <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>62</v>
@@ -7752,7 +7828,7 @@
         <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>83</v>
@@ -7769,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>170</v>
@@ -7786,7 +7862,7 @@
         <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>171</v>
@@ -7803,7 +7879,7 @@
         <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>172</v>
@@ -7820,7 +7896,7 @@
         <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>173</v>
@@ -7837,7 +7913,7 @@
         <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>174</v>
@@ -7854,7 +7930,7 @@
         <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>175</v>
@@ -7871,7 +7947,7 @@
         <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>176</v>
@@ -7888,7 +7964,7 @@
         <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>177</v>
@@ -7905,7 +7981,7 @@
         <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>178</v>
@@ -7922,7 +7998,7 @@
         <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>49</v>
@@ -7939,7 +8015,7 @@
         <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>50</v>
@@ -7956,7 +8032,7 @@
         <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>51</v>
@@ -7973,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>52</v>
@@ -7990,7 +8066,7 @@
         <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>53</v>
@@ -8007,7 +8083,7 @@
         <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>54</v>
@@ -8024,7 +8100,7 @@
         <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>55</v>
@@ -8041,7 +8117,7 @@
         <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C211" s="15" t="s">
         <v>56</v>
@@ -8058,7 +8134,7 @@
         <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C212" s="15" t="s">
         <v>57</v>
@@ -8075,7 +8151,7 @@
         <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C213" s="15" t="s">
         <v>58</v>
@@ -8092,7 +8168,7 @@
         <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>59</v>
@@ -8109,7 +8185,7 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>60</v>
@@ -8126,7 +8202,7 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>61</v>
@@ -8143,7 +8219,7 @@
         <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>62</v>
@@ -8160,7 +8236,7 @@
         <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>83</v>
@@ -8177,7 +8253,7 @@
         <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>170</v>
@@ -8194,7 +8270,7 @@
         <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>171</v>
@@ -8211,7 +8287,7 @@
         <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>172</v>
@@ -8228,7 +8304,7 @@
         <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C222" s="15" t="s">
         <v>173</v>
@@ -8245,7 +8321,7 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223" s="15" t="s">
         <v>174</v>
@@ -8262,7 +8338,7 @@
         <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>175</v>
@@ -8279,7 +8355,7 @@
         <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" s="15" t="s">
         <v>176</v>
@@ -8296,7 +8372,7 @@
         <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C226" s="15" t="s">
         <v>177</v>
@@ -8313,7 +8389,7 @@
         <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C227" s="15" t="s">
         <v>178</v>
@@ -8330,7 +8406,7 @@
         <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>49</v>
@@ -8347,7 +8423,7 @@
         <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>50</v>
@@ -8364,7 +8440,7 @@
         <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>51</v>
@@ -8381,7 +8457,7 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>52</v>
@@ -8398,7 +8474,7 @@
         <v>94</v>
       </c>
       <c r="B232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>53</v>
@@ -8415,7 +8491,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>54</v>
@@ -8432,7 +8508,7 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>55</v>
@@ -8449,7 +8525,7 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>56</v>
@@ -8466,7 +8542,7 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>57</v>
@@ -8483,7 +8559,7 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>58</v>
@@ -8500,7 +8576,7 @@
         <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>59</v>
@@ -8517,7 +8593,7 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>60</v>
@@ -8534,7 +8610,7 @@
         <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>61</v>
@@ -8551,7 +8627,7 @@
         <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>62</v>
@@ -8568,7 +8644,7 @@
         <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>83</v>
@@ -8624,7 +8700,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -8635,7 +8711,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>0.32</v>
@@ -8646,7 +8722,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -8657,7 +8733,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>0.224</v>
@@ -8668,7 +8744,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>5.6000000000000001E-2</v>
@@ -9708,7 +9784,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9747,6 +9823,349 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>2030</v>
+      </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>2035</v>
+      </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>2040</v>
+      </c>
+      <c r="C7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>2045</v>
+      </c>
+      <c r="C8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>2050</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11">
+        <v>2025</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>2030</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13">
+        <v>2035</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14">
+        <v>2040</v>
+      </c>
+      <c r="C14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <v>2045</v>
+      </c>
+      <c r="C15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16">
+        <v>2050</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19">
+        <v>2030</v>
+      </c>
+      <c r="C19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20">
+        <v>2035</v>
+      </c>
+      <c r="C20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21">
+        <v>2040</v>
+      </c>
+      <c r="C21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22">
+        <v>2045</v>
+      </c>
+      <c r="C22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23">
+        <v>2050</v>
+      </c>
+      <c r="C23">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>2030</v>
+      </c>
+      <c r="C26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28">
+        <v>2040</v>
+      </c>
+      <c r="C28">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>2045</v>
+      </c>
+      <c r="C29">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>2050</v>
+      </c>
+      <c r="C30">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -10054,7 +10473,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12">
         <v>1.94</v>
@@ -10067,61 +10486,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3">
-        <v>3729</v>
-      </c>
-      <c r="C3">
-        <v>2015</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CDF7AF-A127-4C44-83E0-EA06614D577F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B828980-1116-2842-A591-1CB0D91A1020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="238">
   <si>
     <t>connection</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>8% discount rate Virginia</t>
+  </si>
+  <si>
+    <t>[name]</t>
   </si>
 </sst>
 </file>
@@ -3853,7 +3856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -9784,7 +9787,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9826,8 +9829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9847,10 +9850,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9862,6 +9873,9 @@
       <c r="C3">
         <v>0.08</v>
       </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9873,6 +9887,9 @@
       <c r="C4">
         <v>0.08</v>
       </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9884,6 +9901,9 @@
       <c r="C5">
         <v>0.08</v>
       </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9895,6 +9915,9 @@
       <c r="C6">
         <v>0.08</v>
       </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9906,6 +9929,9 @@
       <c r="C7">
         <v>0.08</v>
       </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9917,6 +9943,9 @@
       <c r="C8">
         <v>0.08</v>
       </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9928,6 +9957,9 @@
       <c r="C9">
         <v>0.08</v>
       </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9939,6 +9971,9 @@
       <c r="C10">
         <v>0.08</v>
       </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9950,6 +9985,9 @@
       <c r="C11">
         <v>0.08</v>
       </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9961,6 +9999,9 @@
       <c r="C12">
         <v>0.08</v>
       </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9972,6 +10013,9 @@
       <c r="C13">
         <v>0.08</v>
       </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9983,6 +10027,9 @@
       <c r="C14">
         <v>0.08</v>
       </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9994,6 +10041,9 @@
       <c r="C15">
         <v>0.08</v>
       </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -10005,8 +10055,11 @@
       <c r="C16">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -10016,8 +10069,11 @@
       <c r="C17">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -10027,8 +10083,11 @@
       <c r="C18">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -10038,8 +10097,11 @@
       <c r="C19">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>235</v>
       </c>
@@ -10049,8 +10111,11 @@
       <c r="C20">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>235</v>
       </c>
@@ -10060,8 +10125,11 @@
       <c r="C21">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>235</v>
       </c>
@@ -10071,8 +10139,11 @@
       <c r="C22">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>235</v>
       </c>
@@ -10082,8 +10153,11 @@
       <c r="C23">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -10093,8 +10167,11 @@
       <c r="C24">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -10104,8 +10181,11 @@
       <c r="C25">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -10115,8 +10195,11 @@
       <c r="C26">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -10126,8 +10209,11 @@
       <c r="C27">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -10137,8 +10223,11 @@
       <c r="C28">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -10148,8 +10237,11 @@
       <c r="C29">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -10158,6 +10250,9 @@
       </c>
       <c r="C30">
         <v>0.08</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B828980-1116-2842-A591-1CB0D91A1020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D221A-FD51-B148-8CB5-5F77D1E57D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8960" yWindow="-21140" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
     <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
     <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId9"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId11"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId14"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId15"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId16"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId17"/>
+    <sheet name="Emission" sheetId="20" r:id="rId9"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="244">
   <si>
     <t>connection</t>
   </si>
@@ -482,12 +483,6 @@
     <t>Plant13</t>
   </si>
   <si>
-    <t>Estadisticas, Enero2016, Febrero2016, Marzo2016</t>
-  </si>
-  <si>
-    <t>https://www2.aeepr.com/Docs/Ley57/</t>
-  </si>
-  <si>
     <t>https://iea-etsap.org/E-TechDS/PDF/E12_el-t&amp;d_KV_Apr2014_GSOK.pdf</t>
   </si>
   <si>
@@ -500,9 +495,6 @@
     <t>https://www.nrel.gov/docs/fy11osti/48595.pdf, "NREL-SEAC" for Capacity factors and lifetime</t>
   </si>
   <si>
-    <t>NREL - Energy Snapshot Puerto Rico, https://www.nrel.gov/docs/fy15osti/62708.pdf</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/analysis/studies/powerplants/capitalcost/, Table 1</t>
   </si>
   <si>
@@ -578,9 +570,6 @@
     <t>ED_NG_CC</t>
   </si>
   <si>
-    <t>Plant14</t>
-  </si>
-  <si>
     <t>Plant15</t>
   </si>
   <si>
@@ -750,6 +739,36 @@
   </si>
   <si>
     <t>[name]</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>emis_comm</t>
+  </si>
+  <si>
+    <t>emis_limit</t>
+  </si>
+  <si>
+    <t>emis_limit_units</t>
+  </si>
+  <si>
+    <t>emis_limit_notes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>summer2</t>
+  </si>
+  <si>
+    <t>Luo</t>
   </si>
 </sst>
 </file>
@@ -791,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +820,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -841,6 +866,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1154,7 +1181,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1234,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,7 +1242,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1223,22 +1250,17 @@
       <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1246,10 +1268,10 @@
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,10 +1279,10 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1268,10 +1290,10 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1279,7 +1301,7 @@
         <v>97</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1312,7 +1334,7 @@
         <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1320,7 +1342,7 @@
         <v>138</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1328,7 +1350,7 @@
         <v>139</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,23 +1358,21 @@
         <v>140</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,15 +1380,15 @@
         <v>143</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,7 +1396,7 @@
         <v>144</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,37 +1404,359 @@
         <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E4" r:id="rId10" location="tabs-2" display="https://www.eia.gov/state/?sid=VA#tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
-    <hyperlink ref="E6" r:id="rId11" xr:uid="{7F428E1B-5EC1-7A47-8559-18213653525C}"/>
-    <hyperlink ref="E7:E9" r:id="rId12" display="https://atb.nrel.gov/" xr:uid="{A5CF294D-5430-094E-A549-C90E4458D6BC}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId9" location="tabs-2" display="https://www.eia.gov/state/?sid=VA#tabs-2" xr:uid="{F38B7400-39C0-5E4F-A23F-425D7821D9C6}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{7F428E1B-5EC1-7A47-8559-18213653525C}"/>
+    <hyperlink ref="E7:E9" r:id="rId11" display="https://atb.nrel.gov/" xr:uid="{A5CF294D-5430-094E-A549-C90E4458D6BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>5.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2.66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>4.03</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>2.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>90.37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>11.46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>2.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>69.34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>39.51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>7.19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>3.05</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>67.58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>7.62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>63.3</v>
+      </c>
+      <c r="H9">
+        <v>50.3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12">
+        <v>1.94</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1471,12 +1813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1509,10 +1851,10 @@
         <v>126</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1541,7 +1883,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1549,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>103</v>
@@ -1575,7 +1917,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>103</v>
@@ -1601,7 +1943,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>103</v>
@@ -1627,7 +1969,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>103</v>
@@ -1653,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>103</v>
@@ -1679,7 +2021,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>103</v>
@@ -1717,7 +2059,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>128</v>
@@ -1731,7 +2073,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>103</v>
@@ -1757,7 +2099,7 @@
         <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>103</v>
@@ -1806,10 +2148,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>103</v>
@@ -1858,7 +2200,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>103</v>
@@ -1884,7 +2226,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>121</v>
@@ -1910,7 +2252,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>103</v>
@@ -1988,10 +2330,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>103</v>
@@ -2014,10 +2356,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>103</v>
@@ -2040,10 +2382,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>103</v>
@@ -2069,7 +2411,7 @@
         <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>103</v>
@@ -2095,7 +2437,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>103</v>
@@ -2222,10 +2564,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>100</v>
@@ -2251,7 +2593,7 @@
         <v>131</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>100</v>
@@ -2350,12 +2692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2428,20 +2770,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="8">
-        <v>91.4</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D3" s="8">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2449,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,20 +2802,22 @@
         <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D4" s="8">
         <v>29.9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="6">
         <v>50</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2483,20 +2827,22 @@
         <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D5" s="8">
         <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2506,20 +2852,22 @@
         <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D6" s="8">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6">
         <v>45</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -2529,20 +2877,22 @@
         <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D7" s="8">
         <v>34.6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="6">
         <v>65</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2552,36 +2902,38 @@
         <v>78.5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D8" s="8">
         <v>34.1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="6">
         <v>65</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="8">
         <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="D9" s="8">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2589,7 +2941,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,13 +2952,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D10" s="5">
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2614,24 +2966,24 @@
         <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D11" s="8">
         <v>45.5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2639,514 +2991,532 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="5">
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D12" s="5">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="5">
         <v>30</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>181</v>
+      <c r="I12" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>211</v>
+      <c r="A13" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="B13" s="5">
-        <v>95</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D13" s="5">
         <v>35</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="5">
         <v>100</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>218</v>
+      <c r="A14" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="B14" s="5">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D14" s="5">
         <v>25.3</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8">
         <v>45</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>181</v>
+      <c r="I14" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>227</v>
+      <c r="A15" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D15" s="5">
         <v>80</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="5">
         <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="5">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D16" s="5">
         <v>36.799999999999997</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="5">
         <v>30</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>181</v>
+      <c r="I16" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="16">
-        <v>50</v>
-      </c>
-      <c r="C17" s="16"/>
+        <v>16.7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D17" s="16">
         <v>85</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>181</v>
+      <c r="E17" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16">
         <v>15</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>181</v>
+      <c r="I17" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>228</v>
+      <c r="A18" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="B18" s="16">
         <v>20</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" s="16">
         <v>80</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
         <v>100</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>229</v>
+      <c r="I18" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="16">
-        <v>56</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>181</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D19" s="16">
         <v>25.3</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>181</v>
+      <c r="E19" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <v>45</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>181</v>
+      <c r="I19" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>200</v>
+      <c r="A20" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="B20" s="16">
         <v>85</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>181</v>
+      <c r="C20" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D20" s="19">
         <v>38.799999999999997</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>181</v>
+      <c r="E20" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
         <v>40</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>181</v>
+      <c r="I20" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>201</v>
+      <c r="A21" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="B21" s="16">
         <v>87</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>181</v>
+      <c r="C21" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D21" s="19">
         <v>51.7</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>181</v>
+      <c r="E21" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
         <v>55</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>181</v>
+      <c r="I21" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>203</v>
+      <c r="A22" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="B22" s="16">
         <v>87</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>181</v>
+      <c r="C22" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D22" s="19">
         <v>51.7</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>181</v>
+      <c r="E22" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <v>45</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>181</v>
+      <c r="I22" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="18">
         <v>87</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>181</v>
+      <c r="C23" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D23" s="16">
         <v>62.02</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>147</v>
+      <c r="E23" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
         <v>30</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>181</v>
+      <c r="I23" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="16">
         <v>30</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>181</v>
+      <c r="C24" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D24" s="16">
         <v>42.47</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>147</v>
+      <c r="E24" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="17">
         <v>55</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>181</v>
+      <c r="I24" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="16">
         <v>22</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>181</v>
+      <c r="C25" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D25" s="16">
         <v>36.799999999999997</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>180</v>
+      <c r="E25" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16">
         <v>30</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>181</v>
+      <c r="I25" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="16">
-        <v>31</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>181</v>
+        <v>45</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D26" s="16">
         <v>36.799999999999997</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>180</v>
+      <c r="E26" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16">
         <v>30</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>181</v>
+      <c r="I26" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="5">
-        <v>50</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>16.7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" s="8">
         <v>85</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8">
         <v>15</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>181</v>
+      <c r="I27" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="5">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D28" s="5">
         <v>25.3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8">
         <v>45</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>181</v>
+      <c r="I28" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>179</v>
+      <c r="A29" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="B29" s="9">
         <v>87</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D29" s="8">
         <v>54.17</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>147</v>
+      <c r="E29" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
       <c r="H29" s="5">
         <v>30</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>181</v>
+      <c r="I29" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="5">
         <v>30</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D30" s="8">
         <v>37.6</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>147</v>
+      <c r="E30" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8">
         <v>55</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>181</v>
+      <c r="I30" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="5">
         <v>22</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>181</v>
+      <c r="C31" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D31" s="5">
         <v>36.799999999999997</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
         <v>30</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>181</v>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="5">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>181</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D32" s="5">
         <v>36.799999999999997</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
         <v>30</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>181</v>
+      <c r="I32" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3155,12 +3525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3221,22 +3591,24 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D3" s="5">
-        <v>75.97</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F3" s="8">
-        <v>1.919</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3244,18 +3616,20 @@
         <v>105</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D4" s="11">
         <v>19.599999999999998</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F4" s="8">
         <v>2.8380000000000001</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3263,18 +3637,20 @@
         <v>106</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D5" s="11">
         <v>24.633333333333336</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F5" s="8">
         <v>0.99299999999999999</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3282,18 +3658,20 @@
         <v>107</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D6" s="5">
         <v>30.57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F6" s="8">
         <v>0.59699999999999998</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3301,18 +3679,20 @@
         <v>108</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D7" s="5">
         <v>34.31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F7" s="8">
         <v>0.72199999999999998</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3320,41 +3700,41 @@
         <v>109</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D8" s="5">
         <v>45.56</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F8" s="8">
         <v>1.0289999999999999</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="5">
-        <v>3935</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>181</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D9" s="11">
-        <v>43</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>181</v>
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>181</v>
+      <c r="G9" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3362,482 +3742,514 @@
         <v>111</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D10" s="11">
         <v>425.4</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>140</v>
+      <c r="E10" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F10" s="8">
         <v>2.6309999999999998</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>140</v>
+      <c r="G10" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="23" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D11" s="9">
-        <v>18.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D12" s="5">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>181</v>
+      <c r="G12" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>211</v>
+      <c r="A13" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D13" s="5">
-        <v>101</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="F13" s="5">
-        <v>1.94</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>218</v>
+      <c r="A14" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D14" s="6">
-        <v>112</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>181</v>
+        <v>123</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F14" s="21">
-        <v>1.67</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>181</v>
+        <v>1.39</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>227</v>
+      <c r="A15" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="D15" s="6">
-        <v>43</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
+        <v>2.78</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D16" s="6">
-        <v>42</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F16" s="21">
         <v>0</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>181</v>
+      <c r="G16" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="17">
-        <v>1284</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>181</v>
+        <v>1544</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D17" s="17">
-        <v>32.1</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>181</v>
+        <v>38.6</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>181</v>
+      <c r="G17" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>228</v>
+      <c r="A18" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="B18" s="17">
-        <v>3935</v>
-      </c>
-      <c r="C18" s="16"/>
+        <v>4300</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="D18" s="17">
-        <v>43</v>
-      </c>
-      <c r="E18" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16"/>
+        <v>2.78</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="17">
-        <v>3749</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>181</v>
+        <v>4020</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D19" s="17">
-        <v>112</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>181</v>
+        <v>123</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F19" s="17">
-        <v>1.67</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>181</v>
+        <v>1.39</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>200</v>
+      <c r="A20" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="B20" s="17">
-        <v>3644</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>181</v>
+        <v>3603</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D20" s="17">
-        <v>33</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>181</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F20" s="17">
-        <v>1.39</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>181</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>201</v>
+      <c r="A21" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="B21" s="17">
-        <v>952</v>
-      </c>
-      <c r="C21" s="19"/>
+        <v>1044</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F21" s="17">
-        <v>11.33</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>180</v>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>203</v>
+      <c r="A22" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="B22" s="17">
-        <v>952</v>
-      </c>
-      <c r="C22" s="19"/>
+        <v>1044</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F22" s="17">
-        <v>11.33</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>180</v>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="20">
-        <v>612.6</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="22">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="17">
+        <v>943</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="17">
         <v>11</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="17">
-        <v>188.3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="17">
-        <v>12</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>181</v>
+      <c r="E24" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F24" s="17">
-        <v>1.944</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>181</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="17">
-        <v>1060</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>181</v>
+        <v>1566</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D25" s="17">
-        <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>181</v>
+      <c r="G25" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="17">
         <v>4455</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>181</v>
+      <c r="C26" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D26" s="17">
-        <v>102</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>181</v>
+      <c r="G26" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="6">
-        <v>1284</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>181</v>
+        <v>1544</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D27" s="6">
-        <v>32.1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>181</v>
+        <v>38.6</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F27" s="21">
         <v>0</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>181</v>
+      <c r="G27" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="6">
-        <v>3749</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="6">
-        <v>112</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1.67</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>181</v>
+      <c r="B28" s="17">
+        <v>4020</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="17">
+        <v>123</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="6">
-        <v>860.9</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="A29" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1044</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="22">
+        <v>13</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="17">
+        <v>943</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="17">
         <v>11</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="6">
-        <v>305.2</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="6">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1.944</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>181</v>
+      <c r="E30" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="6">
-        <v>1060</v>
+        <v>1566</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D31" s="6">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>181</v>
+      <c r="G31" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="6">
         <v>4455</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D32" s="6">
-        <v>102</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>181</v>
+      <c r="G32" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.2">
@@ -3852,12 +4264,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4019,13 +4431,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" s="5">
         <v>0.01</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>3568</v>
@@ -4033,7 +4445,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4060,7 +4472,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4084,7 +4496,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B19" s="19">
         <v>0.01</v>
@@ -4099,7 +4511,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" s="19">
         <v>0.93</v>
@@ -4114,7 +4526,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B21" s="19">
         <v>0.93</v>
@@ -4199,7 +4611,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -4238,12 +4650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4292,7 +4704,7 @@
         <v>1985</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4328,7 +4740,7 @@
         <v>1980</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4370,7 +4782,7 @@
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,7 +4807,7 @@
         <v>1995</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +4821,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4835,7 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,12 +4849,12 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>3568</v>
@@ -4451,12 +4863,12 @@
         <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B16">
         <v>153</v>
@@ -4465,12 +4877,12 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>3200</v>
@@ -4479,7 +4891,7 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4529,12 +4941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4556,7 +4968,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -4584,10 +4996,10 @@
         <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4601,10 +5013,10 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4618,10 +5030,10 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4635,10 +5047,10 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4652,10 +5064,10 @@
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4669,10 +5081,10 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4686,10 +5098,10 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4703,10 +5115,10 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4720,10 +5132,10 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
@@ -4737,7 +5149,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>49</v>
@@ -4754,7 +5166,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>50</v>
@@ -4771,7 +5183,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>51</v>
@@ -4788,7 +5200,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>52</v>
@@ -4805,7 +5217,7 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>53</v>
@@ -4822,7 +5234,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
@@ -4839,7 +5251,7 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>55</v>
@@ -4856,7 +5268,7 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>56</v>
@@ -4873,7 +5285,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>57</v>
@@ -4890,7 +5302,7 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>58</v>
@@ -4907,7 +5319,7 @@
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>59</v>
@@ -4924,7 +5336,7 @@
         <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>60</v>
@@ -4941,7 +5353,7 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>61</v>
@@ -4958,7 +5370,7 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>62</v>
@@ -4975,7 +5387,7 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>83</v>
@@ -4992,10 +5404,10 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5009,10 +5421,10 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5026,10 +5438,10 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5043,10 +5455,10 @@
         <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5060,10 +5472,10 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5077,10 +5489,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5094,10 +5506,10 @@
         <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5111,10 +5523,10 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
@@ -5128,10 +5540,10 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
@@ -5145,7 +5557,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>49</v>
@@ -5162,7 +5574,7 @@
         <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>50</v>
@@ -5179,7 +5591,7 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>51</v>
@@ -5196,7 +5608,7 @@
         <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>52</v>
@@ -5213,7 +5625,7 @@
         <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>53</v>
@@ -5230,7 +5642,7 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>54</v>
@@ -5247,7 +5659,7 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>55</v>
@@ -5264,7 +5676,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>56</v>
@@ -5281,7 +5693,7 @@
         <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>57</v>
@@ -5298,7 +5710,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>58</v>
@@ -5315,7 +5727,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>59</v>
@@ -5332,7 +5744,7 @@
         <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>60</v>
@@ -5349,7 +5761,7 @@
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>61</v>
@@ -5366,7 +5778,7 @@
         <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>62</v>
@@ -5383,7 +5795,7 @@
         <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>83</v>
@@ -5400,10 +5812,10 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5417,10 +5829,10 @@
         <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5434,10 +5846,10 @@
         <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5451,10 +5863,10 @@
         <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5468,10 +5880,10 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5485,10 +5897,10 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5502,10 +5914,10 @@
         <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5519,10 +5931,10 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5536,10 +5948,10 @@
         <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59">
         <v>0.96259337132800005</v>
@@ -5553,7 +5965,7 @@
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>49</v>
@@ -5570,7 +5982,7 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>50</v>
@@ -5587,7 +5999,7 @@
         <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>51</v>
@@ -5604,7 +6016,7 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>52</v>
@@ -5621,7 +6033,7 @@
         <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>53</v>
@@ -5638,7 +6050,7 @@
         <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>54</v>
@@ -5655,7 +6067,7 @@
         <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>55</v>
@@ -5672,7 +6084,7 @@
         <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>56</v>
@@ -5689,7 +6101,7 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>57</v>
@@ -5706,7 +6118,7 @@
         <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>58</v>
@@ -5723,7 +6135,7 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>59</v>
@@ -5740,7 +6152,7 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>60</v>
@@ -5757,7 +6169,7 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>61</v>
@@ -5774,7 +6186,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>62</v>
@@ -5791,7 +6203,7 @@
         <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>83</v>
@@ -5808,10 +6220,10 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5825,10 +6237,10 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -5842,10 +6254,10 @@
         <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -5859,10 +6271,10 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -5876,10 +6288,10 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5893,10 +6305,10 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5910,10 +6322,10 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5927,10 +6339,10 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D82">
         <v>3.4015238599050001E-3</v>
@@ -5944,10 +6356,10 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D83">
         <v>0.31392081523400001</v>
@@ -5961,7 +6373,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>49</v>
@@ -5978,7 +6390,7 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>50</v>
@@ -5995,7 +6407,7 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>51</v>
@@ -6012,7 +6424,7 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>52</v>
@@ -6029,7 +6441,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>53</v>
@@ -6046,7 +6458,7 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>54</v>
@@ -6063,7 +6475,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>55</v>
@@ -6080,7 +6492,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>56</v>
@@ -6097,7 +6509,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>57</v>
@@ -6114,7 +6526,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
@@ -6131,7 +6543,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
@@ -6148,7 +6560,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>60</v>
@@ -6165,7 +6577,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>61</v>
@@ -6182,7 +6594,7 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>62</v>
@@ -6199,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>83</v>
@@ -6216,10 +6628,10 @@
         <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -6233,10 +6645,10 @@
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -6250,10 +6662,10 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -6267,10 +6679,10 @@
         <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -6284,10 +6696,10 @@
         <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -6301,10 +6713,10 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -6318,10 +6730,10 @@
         <v>93</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -6335,10 +6747,10 @@
         <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D106">
         <v>8.5038096497625003E-4</v>
@@ -6352,10 +6764,10 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D107">
         <v>7.8480203808500001E-2</v>
@@ -6369,7 +6781,7 @@
         <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>49</v>
@@ -6386,7 +6798,7 @@
         <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>50</v>
@@ -6403,7 +6815,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>51</v>
@@ -6420,7 +6832,7 @@
         <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>52</v>
@@ -6437,7 +6849,7 @@
         <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>53</v>
@@ -6454,7 +6866,7 @@
         <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>54</v>
@@ -6471,7 +6883,7 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>55</v>
@@ -6488,7 +6900,7 @@
         <v>93</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>56</v>
@@ -6505,7 +6917,7 @@
         <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>57</v>
@@ -6522,7 +6934,7 @@
         <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>58</v>
@@ -6539,7 +6951,7 @@
         <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>59</v>
@@ -6556,7 +6968,7 @@
         <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>60</v>
@@ -6573,7 +6985,7 @@
         <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>61</v>
@@ -6590,7 +7002,7 @@
         <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>62</v>
@@ -6607,7 +7019,7 @@
         <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>83</v>
@@ -6621,16 +7033,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="s">
         <v>147</v>
@@ -6638,16 +7050,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
         <v>147</v>
@@ -6655,16 +7067,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
         <v>147</v>
@@ -6672,16 +7084,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
         <v>147</v>
@@ -6689,16 +7101,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
         <v>147</v>
@@ -6706,16 +7118,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
         <v>147</v>
@@ -6723,16 +7135,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
         <v>147</v>
@@ -6740,16 +7152,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5.1022857898575004E-3</v>
       </c>
       <c r="E130" t="s">
         <v>147</v>
@@ -6757,16 +7169,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0.47088122285099998</v>
       </c>
       <c r="E131" t="s">
         <v>147</v>
@@ -6774,16 +7186,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>1.159376330025</v>
       </c>
       <c r="E132" t="s">
         <v>147</v>
@@ -6791,16 +7203,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>1.8478054567349997</v>
       </c>
       <c r="E133" t="s">
         <v>147</v>
@@ -6808,16 +7220,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2.2538402310525001</v>
       </c>
       <c r="E134" t="s">
         <v>147</v>
@@ -6825,16 +7237,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2.6481698411100001</v>
       </c>
       <c r="E135" t="s">
         <v>147</v>
@@ -6842,16 +7254,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2.7720413072625001</v>
       </c>
       <c r="E136" t="s">
         <v>147</v>
@@ -6859,16 +7271,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2.5330940591549997</v>
       </c>
       <c r="E137" t="s">
         <v>147</v>
@@ -6876,16 +7288,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2.0826799123424999</v>
       </c>
       <c r="E138" t="s">
         <v>147</v>
@@ -6893,16 +7305,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>1.4690162737275001</v>
       </c>
       <c r="E139" t="s">
         <v>147</v>
@@ -6910,16 +7322,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0.75799307993999987</v>
       </c>
       <c r="E140" t="s">
         <v>147</v>
@@ -6927,16 +7339,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="s">
         <v>147</v>
@@ -6944,16 +7356,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="s">
         <v>147</v>
@@ -6961,16 +7373,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
         <v>147</v>
@@ -6978,16 +7390,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="s">
         <v>147</v>
@@ -6995,16 +7407,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
         <v>147</v>
@@ -7012,16 +7424,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
         <v>147</v>
@@ -7032,10 +7444,10 @@
         <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -7049,10 +7461,10 @@
         <v>94</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -7066,10 +7478,10 @@
         <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -7083,10 +7495,10 @@
         <v>94</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -7100,10 +7512,10 @@
         <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -7117,10 +7529,10 @@
         <v>94</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -7134,10 +7546,10 @@
         <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -7151,10 +7563,10 @@
         <v>94</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -7168,10 +7580,10 @@
         <v>94</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7185,7 +7597,7 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>49</v>
@@ -7202,7 +7614,7 @@
         <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>50</v>
@@ -7219,7 +7631,7 @@
         <v>94</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>51</v>
@@ -7236,7 +7648,7 @@
         <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>52</v>
@@ -7253,7 +7665,7 @@
         <v>94</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>53</v>
@@ -7270,7 +7682,7 @@
         <v>94</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>54</v>
@@ -7287,7 +7699,7 @@
         <v>94</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>55</v>
@@ -7304,7 +7716,7 @@
         <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>56</v>
@@ -7321,7 +7733,7 @@
         <v>94</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>57</v>
@@ -7338,7 +7750,7 @@
         <v>94</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>58</v>
@@ -7355,7 +7767,7 @@
         <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>59</v>
@@ -7372,7 +7784,7 @@
         <v>94</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>60</v>
@@ -7389,7 +7801,7 @@
         <v>94</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>61</v>
@@ -7406,7 +7818,7 @@
         <v>94</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>62</v>
@@ -7423,7 +7835,7 @@
         <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>83</v>
@@ -7440,10 +7852,10 @@
         <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7457,10 +7869,10 @@
         <v>94</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7474,10 +7886,10 @@
         <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7491,10 +7903,10 @@
         <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7508,10 +7920,10 @@
         <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -7525,10 +7937,10 @@
         <v>94</v>
       </c>
       <c r="B176" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -7542,10 +7954,10 @@
         <v>94</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -7559,10 +7971,10 @@
         <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -7576,10 +7988,10 @@
         <v>94</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7593,7 +8005,7 @@
         <v>94</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>49</v>
@@ -7610,7 +8022,7 @@
         <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>50</v>
@@ -7627,7 +8039,7 @@
         <v>94</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>51</v>
@@ -7644,7 +8056,7 @@
         <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>52</v>
@@ -7661,7 +8073,7 @@
         <v>94</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>53</v>
@@ -7678,7 +8090,7 @@
         <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>54</v>
@@ -7695,7 +8107,7 @@
         <v>94</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>55</v>
@@ -7712,7 +8124,7 @@
         <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>56</v>
@@ -7729,7 +8141,7 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>57</v>
@@ -7746,7 +8158,7 @@
         <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>58</v>
@@ -7763,7 +8175,7 @@
         <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>59</v>
@@ -7780,7 +8192,7 @@
         <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>60</v>
@@ -7797,7 +8209,7 @@
         <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>61</v>
@@ -7814,7 +8226,7 @@
         <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>62</v>
@@ -7831,7 +8243,7 @@
         <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>83</v>
@@ -7848,10 +8260,10 @@
         <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -7865,10 +8277,10 @@
         <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -7882,10 +8294,10 @@
         <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -7899,10 +8311,10 @@
         <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7916,10 +8328,10 @@
         <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7933,10 +8345,10 @@
         <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7950,10 +8362,10 @@
         <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -7967,10 +8379,10 @@
         <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7984,10 +8396,10 @@
         <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -8001,7 +8413,7 @@
         <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>49</v>
@@ -8018,7 +8430,7 @@
         <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>50</v>
@@ -8035,7 +8447,7 @@
         <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>51</v>
@@ -8052,7 +8464,7 @@
         <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>52</v>
@@ -8069,7 +8481,7 @@
         <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>53</v>
@@ -8086,7 +8498,7 @@
         <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>54</v>
@@ -8103,7 +8515,7 @@
         <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>55</v>
@@ -8120,7 +8532,7 @@
         <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C211" s="15" t="s">
         <v>56</v>
@@ -8137,7 +8549,7 @@
         <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C212" s="15" t="s">
         <v>57</v>
@@ -8154,7 +8566,7 @@
         <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C213" s="15" t="s">
         <v>58</v>
@@ -8171,7 +8583,7 @@
         <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>59</v>
@@ -8188,7 +8600,7 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>60</v>
@@ -8205,7 +8617,7 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>61</v>
@@ -8222,7 +8634,7 @@
         <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>62</v>
@@ -8239,7 +8651,7 @@
         <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>83</v>
@@ -8256,10 +8668,10 @@
         <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8273,10 +8685,10 @@
         <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8290,10 +8702,10 @@
         <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -8307,10 +8719,10 @@
         <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -8324,10 +8736,10 @@
         <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -8341,10 +8753,10 @@
         <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -8358,10 +8770,10 @@
         <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -8375,10 +8787,10 @@
         <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -8392,10 +8804,10 @@
         <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8409,7 +8821,7 @@
         <v>94</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>49</v>
@@ -8426,7 +8838,7 @@
         <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>50</v>
@@ -8443,7 +8855,7 @@
         <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>51</v>
@@ -8460,7 +8872,7 @@
         <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>52</v>
@@ -8477,7 +8889,7 @@
         <v>94</v>
       </c>
       <c r="B232" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>53</v>
@@ -8494,7 +8906,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>54</v>
@@ -8511,7 +8923,7 @@
         <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>55</v>
@@ -8528,7 +8940,7 @@
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>56</v>
@@ -8545,7 +8957,7 @@
         <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>57</v>
@@ -8562,7 +8974,7 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>58</v>
@@ -8579,7 +8991,7 @@
         <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>59</v>
@@ -8596,7 +9008,7 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>60</v>
@@ -8613,7 +9025,7 @@
         <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>61</v>
@@ -8630,7 +9042,7 @@
         <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>62</v>
@@ -8647,7 +9059,7 @@
         <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>83</v>
@@ -8656,6 +9068,822 @@
         <v>1</v>
       </c>
       <c r="E242" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B243" t="s">
+        <v>222</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B244" t="s">
+        <v>222</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B245" t="s">
+        <v>222</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B246" t="s">
+        <v>222</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B247" t="s">
+        <v>222</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B248" t="s">
+        <v>222</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B249" t="s">
+        <v>222</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B250" t="s">
+        <v>222</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B251" t="s">
+        <v>222</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B252" t="s">
+        <v>222</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B253" t="s">
+        <v>222</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B254" t="s">
+        <v>222</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B255" t="s">
+        <v>222</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B256" t="s">
+        <v>222</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B257" t="s">
+        <v>222</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B258" t="s">
+        <v>222</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B259" t="s">
+        <v>222</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B260" t="s">
+        <v>222</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B261" t="s">
+        <v>222</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B262" t="s">
+        <v>222</v>
+      </c>
+      <c r="C262" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B263" t="s">
+        <v>222</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B264" t="s">
+        <v>222</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B265" t="s">
+        <v>222</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B266" t="s">
+        <v>222</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B267" t="s">
+        <v>242</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B268" t="s">
+        <v>242</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B269" t="s">
+        <v>242</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B270" t="s">
+        <v>242</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B271" t="s">
+        <v>242</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B272" t="s">
+        <v>242</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B273" t="s">
+        <v>242</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B274" t="s">
+        <v>242</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B275" t="s">
+        <v>242</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B276" t="s">
+        <v>242</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B277" t="s">
+        <v>242</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B278" t="s">
+        <v>242</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B279" t="s">
+        <v>242</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B280" t="s">
+        <v>242</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B281" t="s">
+        <v>242</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B282" t="s">
+        <v>242</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B283" t="s">
+        <v>242</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B284" t="s">
+        <v>242</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B285" t="s">
+        <v>242</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B286" t="s">
+        <v>242</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B287" t="s">
+        <v>242</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B288" t="s">
+        <v>242</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B289" t="s">
+        <v>242</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B290" t="s">
+        <v>242</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8667,10 +9895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8684,10 +9912,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8698,12 +9926,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -8714,45 +9942,56 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B4">
-        <v>0.32</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B6">
-        <v>0.224</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B7">
+        <v>0.224</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.05</v>
       </c>
     </row>
@@ -8780,10 +10019,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8794,12 +10033,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <v>3.662E-2</v>
@@ -8810,7 +10049,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>3.5525000000000001E-2</v>
@@ -8821,7 +10060,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5">
         <v>3.5157000000000001E-2</v>
@@ -8832,7 +10071,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>3.5150000000000001E-2</v>
@@ -8843,7 +10082,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7">
         <v>3.5861999999999998E-2</v>
@@ -8854,7 +10093,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>3.7863000000000001E-2</v>
@@ -8865,7 +10104,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B9">
         <v>4.0563000000000002E-2</v>
@@ -8876,7 +10115,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10">
         <v>4.2101E-2</v>
@@ -8887,7 +10126,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>4.2272999999999998E-2</v>
@@ -9072,7 +10311,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9165,7 +10404,7 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -9183,21 +10422,21 @@
         <v>2084.1332580463013</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J3">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
         <v>100</v>
@@ -9214,24 +10453,24 @@
         <v>688.39634941329859</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -9249,21 +10488,21 @@
         <v>323.88212908717634</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J5">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
@@ -9272,25 +10511,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2">
         <v>539.80354847862725</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J6">
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9301,7 +10540,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9310,47 +10549,47 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8">
         <v>4531.3620000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>100</v>
@@ -9362,36 +10601,36 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H9">
         <v>7746.9369999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9403,18 +10642,18 @@
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9426,18 +10665,18 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9449,18 +10688,18 @@
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9472,18 +10711,18 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9495,7 +10734,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +10748,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9548,10 +10787,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>403.2</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -9731,12 +10970,12 @@
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>50000</v>
@@ -9745,12 +10984,12 @@
         <v>2000</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>50000</v>
@@ -9759,12 +10998,12 @@
         <v>2000</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>50000</v>
@@ -9773,7 +11012,7 @@
         <v>2000</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9830,31 +11069,31 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D30"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>82</v>
@@ -9874,7 +11113,7 @@
         <v>0.08</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9888,7 +11127,7 @@
         <v>0.08</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9902,7 +11141,7 @@
         <v>0.08</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -9916,7 +11155,7 @@
         <v>0.08</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -9930,7 +11169,7 @@
         <v>0.08</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -9944,7 +11183,7 @@
         <v>0.08</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -9958,12 +11197,12 @@
         <v>0.08</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B10">
         <v>2020</v>
@@ -9972,12 +11211,12 @@
         <v>0.08</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -9986,12 +11225,12 @@
         <v>0.08</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B12">
         <v>2030</v>
@@ -10000,12 +11239,12 @@
         <v>0.08</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>2035</v>
@@ -10014,12 +11253,12 @@
         <v>0.08</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B14">
         <v>2040</v>
@@ -10028,12 +11267,12 @@
         <v>0.08</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15">
         <v>2045</v>
@@ -10042,12 +11281,12 @@
         <v>0.08</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B16">
         <v>2050</v>
@@ -10056,12 +11295,12 @@
         <v>0.08</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B17">
         <v>2020</v>
@@ -10070,12 +11309,12 @@
         <v>0.08</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B18">
         <v>2025</v>
@@ -10084,12 +11323,12 @@
         <v>0.08</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B19">
         <v>2030</v>
@@ -10098,12 +11337,12 @@
         <v>0.08</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B20">
         <v>2035</v>
@@ -10112,12 +11351,12 @@
         <v>0.08</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>2040</v>
@@ -10126,12 +11365,12 @@
         <v>0.08</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B22">
         <v>2045</v>
@@ -10140,12 +11379,12 @@
         <v>0.08</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B23">
         <v>2050</v>
@@ -10154,7 +11393,7 @@
         <v>0.08</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -10168,7 +11407,7 @@
         <v>0.08</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -10182,7 +11421,7 @@
         <v>0.08</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -10196,7 +11435,7 @@
         <v>0.08</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -10210,7 +11449,7 @@
         <v>0.08</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -10224,7 +11463,7 @@
         <v>0.08</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -10238,7 +11477,7 @@
         <v>0.08</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -10252,7 +11491,7 @@
         <v>0.08</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10261,324 +11500,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF032A-2D29-654E-94C4-B44BF2439BC1}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3">
-        <v>5.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3">
-        <v>2.66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4">
-        <v>4.03</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>2.7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>90.37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5">
-        <v>11.46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5">
-        <v>2.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5">
-        <v>69.34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>39.51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>7.19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8">
-        <v>3.05</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8">
-        <v>67.58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9">
-        <v>7.62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>63.3</v>
-      </c>
-      <c r="H9">
-        <v>50.3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12">
-        <v>1.94</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D221A-FD51-B148-8CB5-5F77D1E57D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE96B054-26FB-AA41-8562-25C14EFB038B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8960" yWindow="-21140" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="246">
   <si>
     <t>connection</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>Luo</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>EX_WOOD</t>
   </si>
 </sst>
 </file>
@@ -779,7 +785,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +811,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -868,6 +881,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1536,16 +1550,10 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>5.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
+        <v>2.76</v>
       </c>
       <c r="D3">
-        <v>2.66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1563,16 +1571,10 @@
         <v>96</v>
       </c>
       <c r="B4">
-        <v>4.03</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
+        <v>2.76</v>
       </c>
       <c r="D4">
-        <v>2.7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>90.37</v>
@@ -1592,16 +1594,10 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>11.46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
+        <v>11.3</v>
       </c>
       <c r="D5">
-        <v>2.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>69.34</v>
@@ -1655,16 +1651,10 @@
         <v>123</v>
       </c>
       <c r="B8">
-        <v>7.19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
+        <v>11.3</v>
       </c>
       <c r="D8">
-        <v>3.05</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>67.58</v>
@@ -1684,16 +1674,10 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>7.62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="D9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>63.3</v>
@@ -1748,6 +1732,29 @@
       </c>
       <c r="J12">
         <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13">
+        <v>2.76</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>90.37</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1758,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1797,17 +1804,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3">
-        <v>3729</v>
-      </c>
-      <c r="C3">
-        <v>2015</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1815,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2232,7 +2228,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>128</v>
@@ -2252,10 +2248,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>103</v>
@@ -2264,91 +2260,91 @@
         <v>128</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="G18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>128</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>128</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>127</v>
@@ -2356,10 +2352,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>103</v>
@@ -2382,10 +2378,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>103</v>
@@ -2408,18 +2404,18 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F23" s="16" t="s">
@@ -2434,7 +2430,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>193</v>
@@ -2443,7 +2439,7 @@
         <v>103</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>128</v>
@@ -2460,10 +2456,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>103</v>
@@ -2478,7 +2474,7 @@
         <v>128</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>127</v>
@@ -2486,10 +2482,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>103</v>
@@ -2511,69 +2507,69 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>128</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>128</v>
@@ -2582,7 +2578,7 @@
         <v>128</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>127</v>
@@ -2590,7 +2586,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>193</v>
@@ -2599,7 +2595,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>128</v>
@@ -2616,10 +2612,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>100</v>
@@ -2634,7 +2630,7 @@
         <v>128</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>127</v>
@@ -2642,10 +2638,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>100</v>
@@ -2666,23 +2662,49 @@
         <v>127</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D23:E32 D19:E19 G19:H19 G23:H32 F19:F32 D3:H15 D18:H18">
+  <conditionalFormatting sqref="D24:E33 D20:E20 G20:H20 G24:H33 F20:F33 D3:H15 D19:H19">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E22 G20:H22">
+  <conditionalFormatting sqref="D21:E23 G21:H23">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H16">
+  <conditionalFormatting sqref="D16:H17">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:H17">
+  <conditionalFormatting sqref="D18:H18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2694,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2774,7 +2796,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="8">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>204</v>
@@ -2849,7 +2871,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>204</v>
@@ -2874,7 +2896,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="8">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>204</v>
@@ -2899,7 +2921,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="8">
-        <v>78.5</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>204</v>
@@ -2924,7 +2946,7 @@
         <v>110</v>
       </c>
       <c r="B9" s="8">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>204</v>
@@ -2974,13 +2996,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="8">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="8">
-        <v>45.5</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>204</v>
@@ -3055,7 +3077,7 @@
         <v>204</v>
       </c>
       <c r="D14" s="5">
-        <v>25.3</v>
+        <v>40</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>204</v>
@@ -3121,24 +3143,24 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="16">
-        <v>16.7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="16">
-        <v>85</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
-        <v>15</v>
+        <v>245</v>
+      </c>
+      <c r="B17" s="5">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="24">
+        <v>25.3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5">
+        <v>50</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>204</v>
@@ -3146,16 +3168,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="B18" s="16">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D18" s="16">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>204</v>
@@ -3163,7 +3185,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>204</v>
@@ -3171,24 +3193,24 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="B19" s="16">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D19" s="16">
-        <v>25.3</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="17">
-        <v>45</v>
+      <c r="H19" s="16">
+        <v>100</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>204</v>
@@ -3196,24 +3218,24 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B20" s="16">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="19">
-        <v>38.799999999999997</v>
+      <c r="D20" s="16">
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="16">
-        <v>40</v>
+      <c r="H20" s="17">
+        <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>204</v>
@@ -3221,16 +3243,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="16">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D21" s="19">
-        <v>51.7</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>204</v>
@@ -3238,7 +3260,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>204</v>
@@ -3246,7 +3268,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="16">
         <v>87</v>
@@ -3263,7 +3285,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>204</v>
@@ -3271,16 +3293,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="18">
+        <v>199</v>
+      </c>
+      <c r="B23" s="16">
         <v>87</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="16">
-        <v>62.02</v>
+      <c r="D23" s="19">
+        <v>51.7</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>204</v>
@@ -3288,7 +3310,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>204</v>
@@ -3296,24 +3318,24 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="16">
-        <v>30</v>
+        <v>117</v>
+      </c>
+      <c r="B24" s="18">
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D24" s="16">
-        <v>42.47</v>
+        <v>62.02</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="17">
-        <v>55</v>
+      <c r="H24" s="16">
+        <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>204</v>
@@ -3321,24 +3343,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="16">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="16">
-        <v>36.799999999999997</v>
+        <v>42.47</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16">
-        <v>30</v>
+      <c r="H25" s="17">
+        <v>55</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>204</v>
@@ -3346,10 +3368,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="16">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>204</v>
@@ -3371,24 +3393,24 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="5">
-        <v>16.7</v>
+        <v>120</v>
+      </c>
+      <c r="B27" s="16">
+        <v>45</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="8">
-        <v>85</v>
+      <c r="D27" s="16">
+        <v>36.799999999999997</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
-        <v>15</v>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
+        <v>30</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>204</v>
@@ -3396,24 +3418,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5">
-        <v>61</v>
+        <v>16.7</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="5">
-        <v>25.3</v>
+      <c r="D28" s="8">
+        <v>85</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>204</v>
@@ -3421,24 +3443,24 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="9">
-        <v>87</v>
+        <v>130</v>
+      </c>
+      <c r="B29" s="5">
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="8">
-        <v>54.17</v>
+      <c r="D29" s="5">
+        <v>25.3</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="5">
-        <v>30</v>
+      <c r="H29" s="8">
+        <v>45</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>204</v>
@@ -3446,24 +3468,24 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="5">
-        <v>30</v>
+        <v>176</v>
+      </c>
+      <c r="B30" s="9">
+        <v>65</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D30" s="8">
-        <v>37.6</v>
+        <v>54.17</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>55</v>
+      <c r="H30" s="5">
+        <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>204</v>
@@ -3471,16 +3493,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="5">
-        <v>36.799999999999997</v>
+      <c r="D31" s="8">
+        <v>37.6</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>204</v>
@@ -3488,7 +3510,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>204</v>
@@ -3496,10 +3518,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="5">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>204</v>
@@ -3516,6 +3538,31 @@
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <v>30</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3527,10 +3574,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3886,22 +3933,20 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1544</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="17">
-        <v>38.6</v>
+      <c r="D17" s="6">
+        <v>123</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="17">
-        <v>0</v>
+      <c r="F17" s="21">
+        <v>1.39</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>204</v>
@@ -3909,68 +3954,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="B18" s="17">
-        <v>4300</v>
+        <v>1544</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D18" s="17">
-        <v>3</v>
+        <v>38.6</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="F18" s="17">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="B19" s="17">
-        <v>4020</v>
+        <v>4300</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D19" s="17">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F19" s="17">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B20" s="17">
-        <v>3603</v>
+        <v>4020</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D20" s="17">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F20" s="17">
-        <v>1.1100000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>204</v>
@@ -3978,22 +4023,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="17">
-        <v>1044</v>
+        <v>3603</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D21" s="17">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F21" s="17">
-        <v>0.55600000000000005</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>204</v>
@@ -4001,7 +4046,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="17">
         <v>1044</v>
@@ -4024,15 +4069,15 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="20">
+        <v>199</v>
+      </c>
+      <c r="B23" s="17">
         <v>1044</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <v>13</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -4047,22 +4092,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="17">
-        <v>943</v>
+        <v>117</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1044</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="17">
-        <v>11</v>
+      <c r="D24" s="22">
+        <v>13</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F24" s="17">
-        <v>1.1100000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>204</v>
@@ -4070,22 +4115,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="17">
-        <v>1566</v>
+        <v>943</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="17">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="17">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>204</v>
@@ -4093,16 +4138,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="17">
-        <v>4455</v>
+        <v>1566</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D26" s="17">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>204</v>
@@ -4116,21 +4161,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1544</v>
+        <v>120</v>
+      </c>
+      <c r="B27" s="17">
+        <v>4455</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="6">
-        <v>38.6</v>
+      <c r="D27" s="17">
+        <v>108</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -4139,22 +4184,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="17">
-        <v>4020</v>
+        <v>129</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1544</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="17">
-        <v>123</v>
+      <c r="D28" s="6">
+        <v>38.6</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="17">
-        <v>1.39</v>
+      <c r="F28" s="21">
+        <v>0</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>204</v>
@@ -4162,22 +4207,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="20">
-        <v>1044</v>
+        <v>130</v>
+      </c>
+      <c r="B29" s="17">
+        <v>4020</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="22">
-        <v>13</v>
+      <c r="D29" s="17">
+        <v>123</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="17">
-        <v>0.55600000000000005</v>
+        <v>1.39</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>204</v>
@@ -4185,22 +4230,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="17">
-        <v>943</v>
+        <v>176</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1044</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="17">
-        <v>11</v>
+      <c r="D30" s="22">
+        <v>13</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F30" s="17">
-        <v>1.1100000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>204</v>
@@ -4208,22 +4253,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1566</v>
+        <v>131</v>
+      </c>
+      <c r="B31" s="17">
+        <v>943</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="6">
-        <v>19</v>
+      <c r="D31" s="17">
+        <v>11</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
+      <c r="F31" s="17">
+        <v>1.1100000000000001</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>204</v>
@@ -4231,32 +4276,55 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1566</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="6">
+        <v>19</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="6">
         <v>4455</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="6">
         <v>108</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="E33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4269,7 +4337,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4401,12 +4469,6 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9">
-        <v>439</v>
-      </c>
-      <c r="E9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -4419,7 +4481,9 @@
       <c r="A11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4439,9 +4503,6 @@
       <c r="C13" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D13">
-        <v>3568</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -4454,8 +4515,12 @@
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -4463,9 +4528,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="19">
-        <v>20000</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4485,12 +4548,14 @@
       <c r="A18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
@@ -4499,7 +4564,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="19">
-        <v>0.01</v>
+        <v>0.93</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>134</v>
@@ -4528,10 +4593,10 @@
       <c r="A21" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="19"/>
@@ -4543,12 +4608,8 @@
       <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -4562,7 +4623,9 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19">
+        <v>1000</v>
+      </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4571,7 +4634,9 @@
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="19">
+        <v>20000</v>
+      </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19">
         <v>1000</v>
@@ -4582,66 +4647,53 @@
       <c r="A25" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="D25">
         <v>20000</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D26">
-        <v>20000</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E27" t="s">
-        <v>141</v>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F30">
+      <c r="D30">
+        <v>20000</v>
+      </c>
+      <c r="F30" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D31">
-        <v>20000</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4707,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4698,7 +4750,7 @@
         <v>104</v>
       </c>
       <c r="B3">
-        <v>3372</v>
+        <v>3780</v>
       </c>
       <c r="C3">
         <v>1985</v>
@@ -4734,7 +4786,7 @@
         <v>107</v>
       </c>
       <c r="B6">
-        <v>2170</v>
+        <v>2343</v>
       </c>
       <c r="C6">
         <v>1980</v>
@@ -4776,7 +4828,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>439</v>
+        <v>866</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -4829,13 +4881,13 @@
         <v>113</v>
       </c>
       <c r="B13">
-        <v>538</v>
+        <v>392.5</v>
       </c>
       <c r="C13">
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,7 +4923,7 @@
         <v>214</v>
       </c>
       <c r="B16">
-        <v>153</v>
+        <v>1475</v>
       </c>
       <c r="C16">
         <v>2013</v>
@@ -4885,7 +4937,7 @@
         <v>223</v>
       </c>
       <c r="B17">
-        <v>3200</v>
+        <v>3241</v>
       </c>
       <c r="C17">
         <v>1970</v>
@@ -4945,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
@@ -10745,10 +10797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10790,7 +10842,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>425</v>
+        <v>343.8</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -10825,90 +10877,6 @@
       </c>
       <c r="D5">
         <v>64.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2030</v>
-      </c>
-      <c r="B6">
-        <v>509.7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>152.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2035</v>
-      </c>
-      <c r="B7">
-        <v>564.79999999999995</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7">
-        <v>169.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2040</v>
-      </c>
-      <c r="B8">
-        <v>616.79999999999995</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8">
-        <v>400.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2045</v>
-      </c>
-      <c r="B9">
-        <v>668.8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9">
-        <v>434.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2050</v>
-      </c>
-      <c r="B10">
-        <v>720.8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>720.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2055</v>
-      </c>
-      <c r="B11">
-        <v>772.7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11">
-        <v>772.7</v>
       </c>
     </row>
   </sheetData>
@@ -11066,10 +11034,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11118,10 +11086,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="B4">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C4">
         <v>0.08</v>
@@ -11132,10 +11100,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="B5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C5">
         <v>0.08</v>
@@ -11146,351 +11114,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="C6">
         <v>0.08</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7">
-        <v>2040</v>
-      </c>
-      <c r="C7">
-        <v>0.08</v>
-      </c>
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8">
-        <v>2045</v>
-      </c>
-      <c r="C8">
-        <v>0.08</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9">
-        <v>2050</v>
-      </c>
-      <c r="C9">
-        <v>0.08</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10">
-        <v>0.08</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11">
-        <v>2025</v>
-      </c>
-      <c r="C11">
-        <v>0.08</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12">
-        <v>2030</v>
-      </c>
-      <c r="C12">
-        <v>0.08</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13">
-        <v>2035</v>
-      </c>
-      <c r="C13">
-        <v>0.08</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14">
-        <v>2040</v>
-      </c>
-      <c r="C14">
-        <v>0.08</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15">
-        <v>2045</v>
-      </c>
-      <c r="C15">
-        <v>0.08</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16">
-        <v>2050</v>
-      </c>
-      <c r="C16">
-        <v>0.08</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17">
-        <v>2020</v>
-      </c>
-      <c r="C17">
-        <v>0.08</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18">
-        <v>2025</v>
-      </c>
-      <c r="C18">
-        <v>0.08</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19">
-        <v>2030</v>
-      </c>
-      <c r="C19">
-        <v>0.08</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20">
-        <v>2035</v>
-      </c>
-      <c r="C20">
-        <v>0.08</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21">
-        <v>2040</v>
-      </c>
-      <c r="C21">
-        <v>0.08</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22">
-        <v>2045</v>
-      </c>
-      <c r="C22">
-        <v>0.08</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23">
-        <v>2050</v>
-      </c>
-      <c r="C23">
-        <v>0.08</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24">
-        <v>2020</v>
-      </c>
-      <c r="C24">
-        <v>0.08</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25">
-        <v>2025</v>
-      </c>
-      <c r="C25">
-        <v>0.08</v>
-      </c>
-      <c r="D25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26">
-        <v>2030</v>
-      </c>
-      <c r="C26">
-        <v>0.08</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27">
-        <v>2035</v>
-      </c>
-      <c r="C27">
-        <v>0.08</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28">
-        <v>2040</v>
-      </c>
-      <c r="C28">
-        <v>0.08</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29">
-        <v>2045</v>
-      </c>
-      <c r="C29">
-        <v>0.08</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30">
-        <v>2050</v>
-      </c>
-      <c r="C30">
-        <v>0.08</v>
-      </c>
-      <c r="D30" t="s">
         <v>166</v>
       </c>
     </row>
@@ -11504,7 +11136,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11545,5 +11177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE96B054-26FB-AA41-8562-25C14EFB038B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962D0EC-C419-BD4A-B720-9D65EB8ADA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1550,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>2.76</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2718,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9950,7 +9950,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10363,7 +10363,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10797,10 +10797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10838,46 +10838,82 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="15">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>343.8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="15">
+        <v>242.7</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="15">
         <v>2020</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>425.8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="15">
         <v>2025</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>461.4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>64.59</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFCF53-ACEE-A741-8AC8-9963E255554D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CBA34-A1C2-B148-8C37-DEC6B019AA7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="254">
   <si>
     <t>connection</t>
   </si>
@@ -774,31 +774,31 @@
     <t>EX_WOOD</t>
   </si>
   <si>
+    <t>StorageDuration</t>
+  </si>
+  <si>
+    <t>[%/yr]</t>
+  </si>
+  <si>
+    <t>CostInvestIncr</t>
+  </si>
+  <si>
+    <t>FirstBuild</t>
+  </si>
+  <si>
+    <t>LastBuild</t>
+  </si>
+  <si>
+    <t>Ref_BuildYears</t>
+  </si>
+  <si>
+    <t>CostFixedIncr</t>
+  </si>
+  <si>
     <t>CO2</t>
   </si>
   <si>
     <t>kton</t>
-  </si>
-  <si>
-    <t>StorageDuration</t>
-  </si>
-  <si>
-    <t>[%/yr]</t>
-  </si>
-  <si>
-    <t>CostInvestIncr</t>
-  </si>
-  <si>
-    <t>FirstBuild</t>
-  </si>
-  <si>
-    <t>LastBuild</t>
-  </si>
-  <si>
-    <t>Ref_BuildYears</t>
-  </si>
-  <si>
-    <t>CostFixedIncr</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +848,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -892,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -921,6 +927,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1491,7 +1498,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1548,13 +1555,13 @@
         <v>156</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1912,7 +1919,7 @@
         <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2795,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2879,7 +2886,7 @@
         <v>203</v>
       </c>
       <c r="D3" s="8">
-        <v>34.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>203</v>
@@ -3029,7 +3036,7 @@
         <v>203</v>
       </c>
       <c r="D9" s="8">
-        <v>36.799999999999997</v>
+        <v>90</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>203</v>
@@ -3073,13 +3080,13 @@
         <v>111</v>
       </c>
       <c r="B11" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="8">
-        <v>40</v>
+        <v>54.1</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>203</v>
@@ -3098,13 +3105,13 @@
         <v>112</v>
       </c>
       <c r="B12" s="5">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="5">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>203</v>
@@ -3123,13 +3130,13 @@
         <v>206</v>
       </c>
       <c r="B13" s="5">
-        <v>93</v>
+        <v>93.6</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D13" s="5">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>203</v>
@@ -3148,13 +3155,13 @@
         <v>213</v>
       </c>
       <c r="B14" s="5">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D14" s="5">
-        <v>40</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>203</v>
@@ -3173,7 +3180,7 @@
         <v>222</v>
       </c>
       <c r="B15" s="5">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>203</v>
@@ -3198,13 +3205,13 @@
         <v>113</v>
       </c>
       <c r="B16" s="5">
-        <v>45</v>
+        <v>48.5</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D16" s="5">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>203</v>
@@ -3229,7 +3236,7 @@
         <v>224</v>
       </c>
       <c r="D17" s="24">
-        <v>25.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>203</v>
@@ -3273,7 +3280,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="16">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>203</v>
@@ -3298,13 +3305,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="16">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D20" s="16">
-        <v>40</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>203</v>
@@ -3323,13 +3330,13 @@
         <v>195</v>
       </c>
       <c r="B21" s="16">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D21" s="19">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>203</v>
@@ -3398,13 +3405,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="18">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D24" s="16">
-        <v>62.02</v>
+        <v>54.1</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>203</v>
@@ -3448,13 +3455,13 @@
         <v>118</v>
       </c>
       <c r="B26" s="16">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="16">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>203</v>
@@ -3473,13 +3480,13 @@
         <v>119</v>
       </c>
       <c r="B27" s="16">
-        <v>45</v>
+        <v>48.5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D27" s="16">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>203</v>
@@ -3523,13 +3530,13 @@
         <v>129</v>
       </c>
       <c r="B29" s="5">
-        <v>61</v>
+        <v>61.9</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D29" s="5">
-        <v>25.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>203</v>
@@ -3548,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B30" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D30" s="8">
-        <v>54.17</v>
+        <v>54.1</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>203</v>
@@ -3573,13 +3580,13 @@
         <v>130</v>
       </c>
       <c r="B31" s="5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D31" s="8">
-        <v>37.6</v>
+        <v>54.1</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>203</v>
@@ -3598,13 +3605,13 @@
         <v>131</v>
       </c>
       <c r="B32" s="5">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D32" s="5">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>203</v>
@@ -3623,13 +3630,13 @@
         <v>132</v>
       </c>
       <c r="B33" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D33" s="5">
-        <v>36.799999999999997</v>
+        <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>203</v>
@@ -3654,7 +3661,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3679,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -3688,7 +3695,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>34</v>
@@ -3963,14 +3970,18 @@
       <c r="E12" s="5">
         <v>19</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>-2.67</v>
+      </c>
       <c r="G12" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
       <c r="J12" s="10" t="s">
         <v>203</v>
       </c>
@@ -4059,14 +4070,18 @@
       <c r="E16" s="6">
         <v>108</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>-2.65</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H16" s="21">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
       <c r="J16" s="10" t="s">
         <v>203</v>
       </c>
@@ -4310,21 +4325,27 @@
       <c r="B26" s="17">
         <v>1566</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>-2.6</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="17">
         <v>19</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="5">
+        <v>-2.67</v>
+      </c>
       <c r="G26" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
       <c r="J26" s="10" t="s">
         <v>203</v>
       </c>
@@ -4334,23 +4355,29 @@
         <v>119</v>
       </c>
       <c r="B27" s="17">
-        <v>4455</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>3055</v>
+      </c>
+      <c r="C27" s="17">
+        <v>-2.75</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="17">
-        <v>108</v>
-      </c>
-      <c r="F27" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="F27" s="17">
+        <v>-2.65</v>
+      </c>
       <c r="G27" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
       <c r="J27" s="10" t="s">
         <v>203</v>
       </c>
@@ -4464,23 +4491,29 @@
         <v>131</v>
       </c>
       <c r="B32" s="6">
-        <v>1566</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>2033</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-2.96</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E32" s="6">
-        <v>19</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-3.37</v>
+      </c>
       <c r="G32" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
       <c r="J32" s="10" t="s">
         <v>203</v>
       </c>
@@ -4492,21 +4525,27 @@
       <c r="B33" s="6">
         <v>4455</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>-4.12</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E33" s="6">
         <v>108</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6">
+        <v>-2.67</v>
+      </c>
       <c r="G33" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
       <c r="J33" s="10" t="s">
         <v>203</v>
       </c>
@@ -4529,7 +4568,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4568,13 +4607,13 @@
         <v>32</v>
       </c>
       <c r="H1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4619,6 +4658,9 @@
       <c r="C3" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H3">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -4630,6 +4672,9 @@
       <c r="C4" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H4">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4641,6 +4686,9 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H5">
+        <v>2020</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -4652,6 +4700,9 @@
       <c r="C6" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -4663,6 +4714,9 @@
       <c r="C7" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -4674,6 +4728,9 @@
       <c r="C8" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="H8">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4681,6 +4738,9 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
+      <c r="H9">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -4688,6 +4748,9 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
+      <c r="H10">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -4697,6 +4760,9 @@
         <v>1</v>
       </c>
       <c r="C11" s="5"/>
+      <c r="H11">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -4704,6 +4770,9 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+      <c r="H12">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -4715,6 +4784,9 @@
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
+      <c r="H13">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -4722,6 +4794,9 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
+      <c r="H14">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -4733,6 +4808,9 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
+      <c r="H15">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -4744,8 +4822,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>223</v>
       </c>
@@ -4755,8 +4836,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>195</v>
       </c>
@@ -4785,8 +4872,11 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>196</v>
       </c>
@@ -4800,8 +4890,11 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>198</v>
       </c>
@@ -4815,8 +4908,11 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4826,8 +4922,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4835,40 +4934,48 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="19">
-        <v>1000</v>
-      </c>
+      <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="19">
-        <v>1000</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D25">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="H25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -4878,34 +4985,47 @@
       <c r="C27" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D30">
         <v>20000</v>
       </c>
-      <c r="F30" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+      <c r="H30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>132</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="H31">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -10575,7 +10695,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10622,7 +10742,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -10634,13 +10754,13 @@
         <v>10</v>
       </c>
       <c r="N1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -10663,7 +10783,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -10672,7 +10792,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -11026,11 +11146,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" s="28">
+        <v>0.50697570000000003</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
@@ -11066,11 +11186,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" s="28">
+        <v>0.37906770000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
@@ -11146,11 +11266,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F13" s="28">
+        <v>0.37906770000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -11186,11 +11306,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" s="28">
+        <v>0.28218300000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
@@ -11542,10 +11662,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCEDF73-15BA-AB46-9BE9-827A810B084A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11622,10 +11742,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
+        <v>118</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2025</v>
       </c>
       <c r="C6">
         <v>0.08</v>
@@ -11636,7 +11756,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="B7" s="15">
         <v>2025</v>
@@ -11650,7 +11770,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B8" s="15">
         <v>2025</v>
@@ -11664,10 +11784,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="C9">
         <v>0.08</v>
@@ -11678,10 +11798,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B10" s="15">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="C10">
         <v>0.08</v>
@@ -11692,7 +11812,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B11" s="15">
         <v>2030</v>
@@ -11706,7 +11826,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B12" s="15">
         <v>2030</v>
@@ -11720,10 +11840,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B13" s="15">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="C13">
         <v>0.08</v>
@@ -11734,10 +11854,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B14" s="15">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="C14">
         <v>0.08</v>
@@ -11748,7 +11868,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B15" s="15">
         <v>2035</v>
@@ -11762,7 +11882,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B16" s="15">
         <v>2035</v>
@@ -11776,10 +11896,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B17" s="15">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C17">
         <v>0.08</v>
@@ -11790,10 +11910,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B18" s="15">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C18">
         <v>0.08</v>
@@ -11804,7 +11924,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B19" s="15">
         <v>2040</v>
@@ -11818,7 +11938,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B20" s="15">
         <v>2040</v>
@@ -11832,10 +11952,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B21" s="15">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="C21">
         <v>0.08</v>
@@ -11846,10 +11966,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B22" s="15">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="C22">
         <v>0.08</v>
@@ -11860,7 +11980,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B23" s="15">
         <v>2045</v>
@@ -11874,7 +11994,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B24" s="15">
         <v>2045</v>
@@ -11888,10 +12008,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B25" s="15">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C25">
         <v>0.08</v>
@@ -11902,10 +12022,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B26" s="15">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C26">
         <v>0.08</v>
@@ -11916,7 +12036,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B27" s="15">
         <v>2050</v>
@@ -11930,7 +12050,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="B28" s="15">
         <v>2050</v>
@@ -11939,34 +12059,6 @@
         <v>0.08</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C29">
-        <v>0.08</v>
-      </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2050</v>
-      </c>
-      <c r="C30">
-        <v>0.08</v>
-      </c>
-      <c r="D30" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11980,7 +12072,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12024,13 +12116,13 @@
         <v>2025</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C3" s="25">
         <v>23800</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -12038,13 +12130,13 @@
         <v>2030</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C4" s="25">
         <v>19600</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -12052,13 +12144,13 @@
         <v>2035</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C5" s="25">
         <v>14700</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -12066,13 +12158,13 @@
         <v>2040</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C6" s="25">
         <v>9800</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -12080,13 +12172,13 @@
         <v>2045</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C7" s="25">
         <v>4900</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -12094,13 +12186,13 @@
         <v>2050</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C8" s="25">
         <v>0</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC4C4F-2255-493A-A5ED-58DC1BAE064A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE2BDD-0860-0C4B-ABEC-8C2E207C6C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="21140" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1288,12 +1288,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1350,13 +1350,13 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1408,32 +1408,32 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1465,13 +1465,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -1545,25 +1545,25 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -1895,12 +1895,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1937,18 +1937,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>200</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>216</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>207</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>231</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>217</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>189</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>190</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>192</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>117</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>118</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>128</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>174</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>131</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>252</v>
       </c>
@@ -2860,22 +2860,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -3508,12 +3508,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="16">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>197</v>
@@ -3533,7 +3533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -3658,12 +3658,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="5">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>197</v>
@@ -3683,7 +3683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -3722,23 +3722,23 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>103</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>200</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>207</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>216</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>113</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>231</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>114</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>217</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>190</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>117</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>118</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>119</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>129</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>174</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>130</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>131</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
@@ -4667,20 +4667,20 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>110</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="C11" s="5"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="C12" s="5"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>200</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>216</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="C14" s="5"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>217</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>115</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>189</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>190</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>192</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>116</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>117</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>118</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>119</v>
       </c>
@@ -5017,13 +5017,13 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
@@ -5035,19 +5035,19 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="F30" s="2"/>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
@@ -5080,14 +5080,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -5340,18 +5340,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2EA99-FD3E-46B3-B04D-E80D1698DC88}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2025</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2030</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2035</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2040</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2045</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2050</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>2035</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>2040</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2045</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>2050</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>2035</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>2040</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>2045</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>2050</v>
       </c>
@@ -5588,14 +5588,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5625,19 +5625,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5818,13 +5818,13 @@
         <v>173</v>
       </c>
       <c r="D11">
-        <v>0.96259337132800005</v>
+        <v>0.77007469706240006</v>
       </c>
       <c r="E11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5835,13 +5835,13 @@
         <v>48</v>
       </c>
       <c r="D12">
-        <v>1.60166683138</v>
+        <v>1.281333465104</v>
       </c>
       <c r="E12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5852,13 +5852,13 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <v>2.95581809344</v>
+        <v>2.3646544747520002</v>
       </c>
       <c r="E13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5869,13 +5869,13 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3.7850790856600001</v>
+        <v>3.0280632685280002</v>
       </c>
       <c r="E14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>3.7761824652699998</v>
+        <v>3.0209459722159995</v>
       </c>
       <c r="E15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5903,13 +5903,13 @@
         <v>52</v>
       </c>
       <c r="D16">
-        <v>3.4941576425399998</v>
+        <v>2.795326114032</v>
       </c>
       <c r="E16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5920,13 +5920,13 @@
         <v>53</v>
       </c>
       <c r="D17">
-        <v>2.8292392133100002</v>
+        <v>2.2633913706480002</v>
       </c>
       <c r="E17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5937,13 +5937,13 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>2.31085050602</v>
+        <v>1.8486804048160002</v>
       </c>
       <c r="E18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5954,13 +5954,13 @@
         <v>55</v>
       </c>
       <c r="D19">
-        <v>1.6195855478600001</v>
+        <v>1.2956684382880002</v>
       </c>
       <c r="E19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -5971,13 +5971,13 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>0.66482724319599995</v>
+        <v>0.53186179455679994</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -6209,13 +6209,13 @@
         <v>172</v>
       </c>
       <c r="D34">
-        <v>8.5038096497625001E-3</v>
+        <v>6.8030477198099994E-3</v>
       </c>
       <c r="E34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -6226,13 +6226,13 @@
         <v>173</v>
       </c>
       <c r="D35">
-        <v>0.78480203808500004</v>
+        <v>0.62784163046800001</v>
       </c>
       <c r="E35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -6243,13 +6243,13 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>1.9322938833750001</v>
+        <v>1.5458351067</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -6260,13 +6260,13 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>3.0796757612249999</v>
+        <v>2.4637406089799998</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -6277,13 +6277,13 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>3.7564003850875003</v>
+        <v>3.00512030807</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -6294,13 +6294,13 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>4.4136164018500006</v>
+        <v>3.5308931214800006</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -6311,13 +6311,13 @@
         <v>52</v>
       </c>
       <c r="D40">
-        <v>4.6200688454375003</v>
+        <v>3.69605507635</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -6328,13 +6328,13 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>4.2218234319250003</v>
+        <v>3.3774587455400007</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -6345,13 +6345,13 @@
         <v>54</v>
       </c>
       <c r="D42">
-        <v>3.4711331872375002</v>
+        <v>2.7769065497900001</v>
       </c>
       <c r="E42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -6362,13 +6362,13 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <v>2.4483604562125003</v>
+        <v>1.9586883649700004</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6379,13 +6379,13 @@
         <v>56</v>
       </c>
       <c r="D44">
-        <v>1.2633217998999999</v>
+        <v>1.0106574399199999</v>
       </c>
       <c r="E44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6634,13 +6634,13 @@
         <v>173</v>
       </c>
       <c r="D59">
-        <v>0.96259337132800005</v>
+        <v>0.77007469706240006</v>
       </c>
       <c r="E59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6651,13 +6651,13 @@
         <v>48</v>
       </c>
       <c r="D60">
-        <v>1.60166683138</v>
+        <v>1.281333465104</v>
       </c>
       <c r="E60" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6668,13 +6668,13 @@
         <v>49</v>
       </c>
       <c r="D61">
-        <v>2.95581809344</v>
+        <v>2.3646544747520002</v>
       </c>
       <c r="E61" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6685,13 +6685,13 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>3.7850790856600001</v>
+        <v>3.0280632685280002</v>
       </c>
       <c r="E62" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6702,13 +6702,13 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>3.7761824652699998</v>
+        <v>3.0209459722159995</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6719,13 +6719,13 @@
         <v>52</v>
       </c>
       <c r="D64">
-        <v>3.4941576425399998</v>
+        <v>2.795326114032</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6736,13 +6736,13 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>2.8292392133100002</v>
+        <v>2.2633913706480002</v>
       </c>
       <c r="E65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6753,13 +6753,13 @@
         <v>54</v>
       </c>
       <c r="D66">
-        <v>2.31085050602</v>
+        <v>1.8486804048160002</v>
       </c>
       <c r="E66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6770,13 +6770,13 @@
         <v>55</v>
       </c>
       <c r="D67">
-        <v>1.6195855478600001</v>
+        <v>1.2956684382880002</v>
       </c>
       <c r="E67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6787,13 +6787,13 @@
         <v>56</v>
       </c>
       <c r="D68">
-        <v>0.66482724319599995</v>
+        <v>0.53186179455679994</v>
       </c>
       <c r="E68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -7025,13 +7025,13 @@
         <v>172</v>
       </c>
       <c r="D82">
-        <v>4.25190482488125E-3</v>
+        <v>3.4015238599049997E-3</v>
       </c>
       <c r="E82" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7042,13 +7042,13 @@
         <v>173</v>
       </c>
       <c r="D83">
-        <v>0.39240101904250002</v>
+        <v>0.31392081523400001</v>
       </c>
       <c r="E83" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -7059,13 +7059,13 @@
         <v>48</v>
       </c>
       <c r="D84">
-        <v>0.96614694168750004</v>
+        <v>0.77291755335000001</v>
       </c>
       <c r="E84" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -7076,13 +7076,13 @@
         <v>49</v>
       </c>
       <c r="D85">
-        <v>1.5398378806124999</v>
+        <v>1.2318703044899999</v>
       </c>
       <c r="E85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -7093,13 +7093,13 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <v>1.8782001925437499</v>
+        <v>1.502560154035</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -7110,13 +7110,13 @@
         <v>51</v>
       </c>
       <c r="D87">
-        <v>2.2068082009249999</v>
+        <v>1.7654465607399998</v>
       </c>
       <c r="E87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -7127,13 +7127,13 @@
         <v>52</v>
       </c>
       <c r="D88">
-        <v>2.3100344227187501</v>
+        <v>1.848027538175</v>
       </c>
       <c r="E88" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -7144,13 +7144,13 @@
         <v>53</v>
       </c>
       <c r="D89">
-        <v>2.1109117159624997</v>
+        <v>1.6887293727699997</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -7161,13 +7161,13 @@
         <v>54</v>
       </c>
       <c r="D90">
-        <v>1.7355665936187501</v>
+        <v>1.388453274895</v>
       </c>
       <c r="E90" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -7178,13 +7178,13 @@
         <v>55</v>
       </c>
       <c r="D91">
-        <v>1.2241802281062499</v>
+        <v>0.97934418248499999</v>
       </c>
       <c r="E91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -7195,13 +7195,13 @@
         <v>56</v>
       </c>
       <c r="D92">
-        <v>0.63166089994999997</v>
+        <v>0.50532871995999995</v>
       </c>
       <c r="E92" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>92</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>92</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>92</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>92</v>
       </c>
@@ -7433,13 +7433,13 @@
         <v>172</v>
       </c>
       <c r="D106">
-        <v>1.133841286635E-3</v>
+        <v>9.0707302930800003E-4</v>
       </c>
       <c r="E106" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>92</v>
       </c>
@@ -7450,13 +7450,13 @@
         <v>173</v>
       </c>
       <c r="D107">
-        <v>0.10464027174466667</v>
+        <v>8.371221739573334E-2</v>
       </c>
       <c r="E107" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
@@ -7467,13 +7467,13 @@
         <v>48</v>
       </c>
       <c r="D108">
-        <v>0.25763918445</v>
+        <v>0.20611134755999999</v>
       </c>
       <c r="E108" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -7484,13 +7484,13 @@
         <v>49</v>
       </c>
       <c r="D109">
-        <v>0.41062343482999997</v>
+        <v>0.32849874786399996</v>
       </c>
       <c r="E109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
@@ -7501,13 +7501,13 @@
         <v>50</v>
       </c>
       <c r="D110">
-        <v>0.50085338467833329</v>
+        <v>0.40068270774266662</v>
       </c>
       <c r="E110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
@@ -7518,13 +7518,13 @@
         <v>51</v>
       </c>
       <c r="D111">
-        <v>0.58848218691333332</v>
+        <v>0.47078574953066671</v>
       </c>
       <c r="E111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>92</v>
       </c>
@@ -7535,13 +7535,13 @@
         <v>52</v>
       </c>
       <c r="D112">
-        <v>0.61600917939166666</v>
+        <v>0.49280734351333333</v>
       </c>
       <c r="E112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>92</v>
       </c>
@@ -7552,13 +7552,13 @@
         <v>53</v>
       </c>
       <c r="D113">
-        <v>0.56290979092333326</v>
+        <v>0.45032783273866656</v>
       </c>
       <c r="E113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>92</v>
       </c>
@@ -7569,13 +7569,13 @@
         <v>54</v>
       </c>
       <c r="D114">
-        <v>0.46281775829833333</v>
+        <v>0.37025420663866665</v>
       </c>
       <c r="E114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>92</v>
       </c>
@@ -7586,13 +7586,13 @@
         <v>55</v>
       </c>
       <c r="D115">
-        <v>0.32644806082833333</v>
+        <v>0.26115844866266669</v>
       </c>
       <c r="E115" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
@@ -7603,13 +7603,13 @@
         <v>56</v>
       </c>
       <c r="D116">
-        <v>0.16844290665333331</v>
+        <v>0.13475432532266665</v>
       </c>
       <c r="E116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>92</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>92</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>92</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>92</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>92</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>92</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>92</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>92</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>92</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>92</v>
       </c>
@@ -7841,13 +7841,13 @@
         <v>172</v>
       </c>
       <c r="D130">
-        <v>4.25190482488125E-3</v>
+        <v>3.4015238599049997E-3</v>
       </c>
       <c r="E130" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -7858,13 +7858,13 @@
         <v>173</v>
       </c>
       <c r="D131">
-        <v>0.39240101904250002</v>
+        <v>0.31392081523400001</v>
       </c>
       <c r="E131" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
@@ -7875,13 +7875,13 @@
         <v>48</v>
       </c>
       <c r="D132">
-        <v>0.96614694168750004</v>
+        <v>0.77291755335000001</v>
       </c>
       <c r="E132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
@@ -7892,13 +7892,13 @@
         <v>49</v>
       </c>
       <c r="D133">
-        <v>1.5398378806124997</v>
+        <v>1.2318703044899997</v>
       </c>
       <c r="E133" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>92</v>
       </c>
@@ -7909,13 +7909,13 @@
         <v>50</v>
       </c>
       <c r="D134">
-        <v>1.8782001925437501</v>
+        <v>1.502560154035</v>
       </c>
       <c r="E134" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>92</v>
       </c>
@@ -7926,13 +7926,13 @@
         <v>51</v>
       </c>
       <c r="D135">
-        <v>2.2068082009250003</v>
+        <v>1.7654465607400003</v>
       </c>
       <c r="E135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>92</v>
       </c>
@@ -7943,13 +7943,13 @@
         <v>52</v>
       </c>
       <c r="D136">
-        <v>2.3100344227187501</v>
+        <v>1.848027538175</v>
       </c>
       <c r="E136" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>92</v>
       </c>
@@ -7960,13 +7960,13 @@
         <v>53</v>
       </c>
       <c r="D137">
-        <v>2.1109117159624997</v>
+        <v>1.6887293727699997</v>
       </c>
       <c r="E137" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>92</v>
       </c>
@@ -7977,13 +7977,13 @@
         <v>54</v>
       </c>
       <c r="D138">
-        <v>1.7355665936187499</v>
+        <v>1.3884532748949998</v>
       </c>
       <c r="E138" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>92</v>
       </c>
@@ -7994,13 +7994,13 @@
         <v>55</v>
       </c>
       <c r="D139">
-        <v>1.2241802281062502</v>
+        <v>0.97934418248500021</v>
       </c>
       <c r="E139" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>92</v>
       </c>
@@ -8011,13 +8011,13 @@
         <v>56</v>
       </c>
       <c r="D140">
-        <v>0.63166089994999985</v>
+        <v>0.50532871995999984</v>
       </c>
       <c r="E140" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>92</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>92</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>92</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>92</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>92</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>93</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>93</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>93</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>93</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>93</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>93</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>93</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>93</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>93</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>93</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>93</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>93</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>93</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>93</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>93</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>93</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>93</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>93</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>93</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>93</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>93</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>93</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>93</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>93</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>93</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>93</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>93</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>93</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>93</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>93</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>93</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>93</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>93</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>93</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>93</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>93</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>93</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>93</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>93</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>93</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>93</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>93</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>93</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>93</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>93</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>93</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>93</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>93</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>93</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>93</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>93</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>93</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>93</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>93</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>93</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>93</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>93</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>93</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>93</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>93</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>93</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>93</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>93</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>93</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>93</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>93</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>93</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>93</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>93</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>93</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>93</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>93</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>93</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>93</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>93</v>
       </c>
@@ -10581,13 +10581,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -10688,12 +10688,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10911,28 +10911,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>246</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -11780,13 +11780,13 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -11884,13 +11884,13 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2018</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2025</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2030</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>152.91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2035</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>169.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2040</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>400.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2045</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>434.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2050</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>720.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2055</v>
       </c>
@@ -12042,14 +12042,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>204</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>228</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>228</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>228</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>228</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>228</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>228</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>3.5405734767332574E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>3.4072566721671999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>3.389369571940673E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>3.3866672042805503E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>3.4843813872926094E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>3.7621676248633266E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>4.1705254046152149E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>4.3747900839406863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>4.3233593089488258E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>4.369085085547094E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>4.3598198249981013E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>205</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>4.342919303441143E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>4.3443777240831143E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>4.375261925913089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>205</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>4.4077761272840896E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>4.4618663752113097E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>4.4892332096106484E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>4.5406210898777451E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>4.7489178733310197E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>205</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>4.7440278747079401E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>4.6340886951381825E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>205</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>4.4351000669586652E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>4.0931862158659862E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>205</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>3.8146278732495195E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>206</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>215</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>215</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>215</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>215</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>215</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>215</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C149" s="29"/>
     </row>
   </sheetData>
@@ -13672,13 +13672,13 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -13715,9 +13715,9 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2025</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>2030</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>2035</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2040</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2045</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>2050</v>
       </c>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D46DA-4409-F74B-B8E1-ADA7F991E460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EE38F-8154-5F45-8E71-9B67B37774B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="21100" tabRatio="941" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="844" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="260">
   <si>
     <t>connection</t>
   </si>
@@ -793,27 +793,15 @@
     <t>Luo [Mid Value]</t>
   </si>
   <si>
-    <t>Assuming similar to Bath County</t>
-  </si>
-  <si>
     <t>NREL ATB (NPD 4)</t>
   </si>
   <si>
-    <t>Vennemann 2010</t>
-  </si>
-  <si>
     <t>Immendoerfer 2017</t>
   </si>
   <si>
-    <t>Abdulgafar 2014</t>
-  </si>
-  <si>
     <t>Rehman 2015</t>
   </si>
   <si>
-    <t>https://www.eia.gov/state/seds/sep_fuel/html/pdf/fuel_pr_ww.pdf</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=15-AEO2020&amp;cases=ref2020&amp;sourcekey=0</t>
   </si>
   <si>
@@ -821,6 +809,15 @@
   </si>
   <si>
     <t>NREL ATB &amp; https://www.eia.gov/outlooks/aeo/data/browser/#/?id=12-AEO2020&amp;cases=ref2020&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/state/seds/sep_fuel/html/pdf/fuel_pr_ww.pdf, NREL ATB</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/pv/assets/pdfs/champion-module-efficiencies.20200708.pdf</t>
+  </si>
+  <si>
+    <t>Beuse et al.</t>
   </si>
 </sst>
 </file>
@@ -829,9 +826,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,18 +866,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -900,8 +885,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,18 +929,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +949,34 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -953,13 +987,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -975,33 +1011,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1559,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1637,10 +1704,10 @@
       <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1696,10 +1763,10 @@
       <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1707,11 +1774,11 @@
       <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="35">
-        <v>2.86</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" s="59">
+        <v>2.85</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>257</v>
@@ -1726,11 +1793,11 @@
       <c r="K3" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="21">
         <f>14.35*2.99</f>
         <v>42.906500000000001</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="21" t="s">
         <v>249</v>
       </c>
     </row>
@@ -1738,17 +1805,17 @@
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="35">
-        <v>1.95</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="23">
+        <v>2.75</v>
+      </c>
+      <c r="C4" s="25">
         <v>-0.1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H4">
-        <v>90.37</v>
+        <v>88.43</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
@@ -1764,9 +1831,10 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="J5">
         <v>50</v>
       </c>
@@ -1778,14 +1846,14 @@
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="35">
-        <v>14.6</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="23">
+        <v>11.29</v>
+      </c>
+      <c r="C6" s="25">
         <v>3.6</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H6">
         <v>67.58</v>
@@ -1804,14 +1872,14 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="35">
-        <v>2.79</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="23">
+        <v>3.91</v>
+      </c>
+      <c r="C7" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H7">
         <v>50.3</v>
@@ -1825,17 +1893,17 @@
       <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="21">
         <f>300.68*1.11</f>
         <v>333.75480000000005</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="21">
         <v>19890</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="21" t="s">
         <v>247</v>
       </c>
     </row>
@@ -1843,9 +1911,10 @@
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="J8">
         <v>50</v>
       </c>
@@ -1857,9 +1926,10 @@
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="J9">
         <v>50</v>
       </c>
@@ -1871,13 +1941,13 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="58">
+        <v>0.63</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J10">
@@ -1886,6 +1956,10 @@
       <c r="K10" t="s">
         <v>154</v>
       </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1950,7 +2024,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2058,14 +2132,14 @@
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <v>0.9</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>237</v>
       </c>
@@ -2090,10 +2164,10 @@
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="60">
         <v>0.95</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2122,10 +2196,10 @@
       <c r="H5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="13">
         <v>0.95</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2154,14 +2228,14 @@
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="13">
         <v>0.95</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>238</v>
       </c>
@@ -2186,14 +2260,14 @@
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="60">
         <v>0.91</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -2218,11 +2292,11 @@
       <c r="H8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="35">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K8" s="35">
-        <v>0</v>
+      <c r="J8" s="61">
+        <v>0.37</v>
+      </c>
+      <c r="K8" s="61">
+        <v>-3.68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2250,14 +2324,14 @@
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="13">
         <v>0.98</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16">
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -2282,14 +2356,14 @@
       <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="35">
-        <v>0.44</v>
-      </c>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16">
+      <c r="J10" s="61">
+        <v>0.51</v>
+      </c>
+      <c r="K10" s="61">
+        <v>-2.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
@@ -2303,7 +2377,7 @@
         <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>118</v>
@@ -2317,10 +2391,10 @@
       <c r="I11">
         <v>12</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="60">
         <v>0.95</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2349,14 +2423,14 @@
       <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="13">
         <v>0.95</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="14" t="s">
         <v>203</v>
       </c>
@@ -2370,7 +2444,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>119</v>
@@ -2384,10 +2458,10 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="60">
         <v>0.95</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2405,7 +2479,7 @@
         <v>119</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>119</v>
@@ -2419,14 +2493,14 @@
       <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="13">
         <v>0.75</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16">
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -2437,7 +2511,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>119</v>
@@ -2451,10 +2525,10 @@
       <c r="H15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="60">
         <v>0.95</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2483,10 +2557,10 @@
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="13">
         <v>0.9</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2515,10 +2589,10 @@
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="13">
         <v>0.95</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2547,10 +2621,10 @@
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="13">
         <v>0.95</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2565,7 +2639,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>119</v>
@@ -2579,14 +2653,14 @@
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="13">
         <v>0.91</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16">
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
@@ -2597,7 +2671,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>119</v>
@@ -2611,14 +2685,14 @@
       <c r="H20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="13">
         <v>0.23</v>
       </c>
-      <c r="K20" s="35">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16">
+      <c r="K20" s="61">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
@@ -2629,7 +2703,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>119</v>
@@ -2643,10 +2717,10 @@
       <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="35">
-        <v>0.36</v>
-      </c>
-      <c r="K21" s="35">
+      <c r="J21" s="61">
+        <v>0.33</v>
+      </c>
+      <c r="K21" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -2664,7 +2738,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>119</v>
@@ -2678,14 +2752,14 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="13">
         <v>0.75</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16">
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -2696,7 +2770,7 @@
         <v>99</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>119</v>
@@ -2710,14 +2784,14 @@
       <c r="H23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="13">
         <v>0.23</v>
       </c>
-      <c r="K23" s="35">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16">
+      <c r="K23" s="61">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>231</v>
       </c>
@@ -2728,7 +2802,7 @@
         <v>240</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>119</v>
@@ -2742,10 +2816,10 @@
       <c r="H24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="35">
-        <v>0.36</v>
-      </c>
-      <c r="K24" s="35">
+      <c r="J24" s="61">
+        <v>0.33</v>
+      </c>
+      <c r="K24" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -2775,7 +2849,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2783,7 +2857,7 @@
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
@@ -2848,10 +2922,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="18">
         <v>29.1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2876,7 +2950,7 @@
       <c r="A4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="18">
         <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2898,10 +2972,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="18">
         <v>23.3</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2923,460 +2997,460 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="33">
         <v>87</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="34">
         <v>54.1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35">
         <v>35</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="36">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="35">
         <v>54.1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35">
         <v>35</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="36">
         <v>23.2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="35">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35">
         <v>30</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="36">
         <v>93.6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="35">
         <v>32.6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35">
         <v>100</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="36">
         <v>61.9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="35">
         <v>35.299999999999997</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
+      <c r="F10" s="35"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="36">
         <v>50</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="35">
         <v>80</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5">
+      <c r="E11" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35">
         <v>100</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>254</v>
+      <c r="I11" s="56" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="36">
         <v>48.5</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="35">
         <v>50</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="38">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="40">
         <v>85</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="38">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="40">
         <v>80</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="E14" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
         <v>100</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>254</v>
+      <c r="I14" s="57" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="38">
         <v>61.9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="40">
         <v>35.299999999999997</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="32">
         <v>45</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="38">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="39">
         <v>39.4</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40">
         <v>40</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="38">
         <v>87</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="39">
         <v>51.7</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40">
         <v>45</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="38">
         <v>87</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="40">
         <v>54.1</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40">
         <v>30</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="38">
         <v>30</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="40">
         <v>42.47</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="32">
         <v>55</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="38">
         <v>23.2</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="40">
         <v>20</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="E20" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40">
         <v>30</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="38">
         <v>48.5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="40">
         <v>50</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40">
         <v>30</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="36">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="34">
         <v>85</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="36">
         <v>23.2</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="35">
         <v>20</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
+      <c r="E23" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="19">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3398,8 +3472,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{3CEF7FAA-4504-5F4D-958D-96854D43F066}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{D13488A1-ADCB-664A-92F0-99D61413F0F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3408,7 +3486,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3417,11 +3495,12 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" customWidth="1"/>
@@ -3503,8 +3582,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5"/>
@@ -3529,21 +3608,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>237</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="E4" s="32">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="27">
+        <v>12.9</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="29">
         <v>0.6</v>
       </c>
       <c r="I4">
@@ -3554,32 +3634,32 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="E5" s="32">
-        <v>42</v>
+      <c r="E5" s="48">
+        <v>43.6</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="36" t="s">
+      <c r="G5" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="41" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5"/>
@@ -3603,8 +3683,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="41" t="s">
         <v>238</v>
       </c>
       <c r="B7" s="5"/>
@@ -3628,8 +3708,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="41" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5"/>
@@ -3653,13 +3733,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="E9" s="26">
+      <c r="E9" s="19">
         <v>119</v>
       </c>
       <c r="F9">
@@ -3678,13 +3758,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="41" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="E10" s="28">
+      <c r="E10" s="20">
         <v>123</v>
       </c>
       <c r="F10">
@@ -3704,12 +3784,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="E11" s="32">
+      <c r="E11" s="52">
         <v>3</v>
       </c>
       <c r="F11">
@@ -3718,18 +3798,18 @@
       <c r="G11" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="34">
-        <v>13.9</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="36" t="s">
+      <c r="H11" s="53">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I11" s="43">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="41" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="5"/>
@@ -3743,312 +3823,332 @@
       <c r="G12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="31">
         <v>1004</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="31">
         <v>-1.97</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="31">
         <v>25.1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="31">
         <v>-1.97</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>244</v>
       </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="32">
-        <v>1179</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="B14" s="55">
+        <v>1439</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="51">
         <v>3</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="34">
-        <v>13.9</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="36" t="s">
+      <c r="H14" s="53">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="31">
         <v>4247</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="31">
         <v>-0.53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="31">
         <v>123</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="31">
         <v>1.31</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="36" t="s">
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="31">
         <v>4099</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="31">
         <v>-0.35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="31">
         <v>39.700000000000003</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="31">
         <v>1.22</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="36" t="s">
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="31">
         <v>1008</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="31">
         <v>-0.4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="31">
+        <v>12.9</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="31">
         <v>0.6</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="36" t="s">
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="31">
         <v>1008</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="31">
         <v>-0.4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="31">
         <v>12.9</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="31">
         <v>0.6</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="36" t="s">
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="31">
         <v>925</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="31">
         <v>-0.41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="31">
         <v>11.4</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="31">
         <v>1.25</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="36" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="31">
         <v>1095</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="31">
         <v>-1.86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="31">
         <v>12.8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="31">
         <v>-1.86</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20" s="31">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="31">
         <v>0.08</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="31">
         <v>3245</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="31">
         <v>-1.7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="31">
         <v>88.6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="31">
         <v>-1.88</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="31">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="31">
         <v>0.08</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B22">
@@ -4079,8 +4179,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B23">
@@ -4117,8 +4217,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="41" t="s">
         <v>231</v>
       </c>
       <c r="B24">
@@ -4163,7 +4263,7 @@
       <c r="L25" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4174,12 +4274,12 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
@@ -4335,128 +4435,176 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="H12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31">
         <v>2025</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="H13">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31">
+        <v>300</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31">
         <v>2025</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14">
-        <v>300</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31">
+        <v>40000</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31">
+        <v>5200</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="H14">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31">
         <v>2025</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="H15">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="H16">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="H17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="H18">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="H19">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20">
-        <v>40000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21">
-        <v>5200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -4464,7 +4612,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
@@ -4478,7 +4626,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
         <v>231</v>
       </c>
@@ -4496,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4700,7 +4848,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4823,58 +4971,58 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="22">
+      <c r="A9" s="39">
         <v>2035</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="39">
         <v>16100</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="39" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22">
+      <c r="A10" s="39">
         <v>2040</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="39">
         <v>16100</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="39" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="22">
+      <c r="A11" s="39">
         <v>2045</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="39">
         <v>16100</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="39" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="22">
+      <c r="A12" s="39">
         <v>2050</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="39">
         <v>16100</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="39" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4944,7 +5092,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4970,9 +5118,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0.36399999999999999</v>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="23">
+        <v>0.41860000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4984,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I232" sqref="I232"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9950,7 +10098,7 @@
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -10270,8 +10418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Q16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10413,16 +10561,16 @@
       <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="62">
+        <v>0</v>
+      </c>
+      <c r="G3" s="62">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -10460,16 +10608,16 @@
       <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>0.4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="62">
+        <v>0</v>
+      </c>
+      <c r="G4" s="62">
         <v>0</v>
       </c>
       <c r="H4" s="2"/>
@@ -10505,16 +10653,16 @@
       <c r="C5" t="s">
         <v>172</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="62">
+        <v>0</v>
+      </c>
+      <c r="G5" s="62">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -10546,22 +10694,22 @@
       <c r="A6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="62">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -10593,19 +10741,20 @@
       <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="62">
+        <v>0</v>
+      </c>
+      <c r="G7" s="62">
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
@@ -10633,22 +10782,22 @@
       <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -10680,22 +10829,22 @@
       <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -10727,19 +10876,20 @@
       <c r="A10" t="s">
         <v>225</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
         <v>0.50697570000000003</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="62">
         <v>20</v>
       </c>
       <c r="H10" s="2"/>
@@ -10768,19 +10918,20 @@
       <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>0.37906770000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="62">
         <v>20</v>
       </c>
       <c r="H11" s="2"/>
@@ -10808,19 +10959,20 @@
       <c r="A12" t="s">
         <v>226</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
         <v>0.28218300000000002</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="62">
         <v>20</v>
       </c>
       <c r="H12" s="2"/>
@@ -10848,19 +11000,20 @@
       <c r="A13" t="s">
         <v>228</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="62">
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
@@ -10895,13 +11048,14 @@
       <c r="C14" t="s">
         <v>174</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="62">
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -10935,13 +11089,14 @@
       <c r="C15" t="s">
         <v>175</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="62">
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
@@ -10975,13 +11130,14 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="I16">
@@ -11013,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11277,15 +11433,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28912B5-8590-412C-8145-960D60FAEF13}">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12895,10 +13051,10 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="C149" s="21"/>
+      <c r="C149" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12907,9 +13063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -12951,7 +13105,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -12974,16 +13128,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>212</v>
       </c>
       <c r="E2" t="s">
@@ -12991,100 +13145,100 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19">
+      <c r="A3" s="13">
         <v>2018</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="64">
         <v>1000000</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19">
+      <c r="A4" s="13">
         <v>2025</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="65">
         <v>23800</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="A5" s="13">
         <v>2030</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="19">
-        <v>19600</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="65">
+        <v>11900</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="A6" s="13">
         <v>2035</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="19">
-        <v>14700</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="65">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>2040</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="19">
-        <v>9800</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="65">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <v>2045</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="19">
-        <v>4900</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="65">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19">
+      <c r="A9" s="13">
         <v>2050</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="65">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>223</v>
       </c>
     </row>

--- a/virginia/data/data_virginia.xlsx
+++ b/virginia/data/data_virginia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451EE38F-8154-5F45-8E71-9B67B37774B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234AF310-50D7-214A-AC96-16C38B568281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="844" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" tabRatio="844" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3107,7 +3107,7 @@
         <v>204</v>
       </c>
       <c r="D10" s="35">
-        <v>35.299999999999997</v>
+        <v>25</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>183</v>
@@ -3232,7 +3232,7 @@
         <v>183</v>
       </c>
       <c r="D15" s="40">
-        <v>35.299999999999997</v>
+        <v>25</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>183</v>
@@ -3486,7 +3486,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5132,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267:D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10419,7 +10419,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10577,7 +10577,7 @@
         <v>97</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>711.2</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <v>24</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>97</v>
       </c>
       <c r="I5" s="2">
-        <v>2322.6</v>
+        <v>711.11</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -10716,7 +10716,7 @@
         <v>154</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>711.11</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -11169,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11212,7 +11212,7 @@
         <v>98</v>
       </c>
       <c r="B3">
-        <v>50000</v>
+        <v>16802</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -11226,7 +11226,7 @@
         <v>165</v>
       </c>
       <c r="B4">
-        <v>50000</v>
+        <v>16735</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -11240,7 +11240,7 @@
         <v>171</v>
       </c>
       <c r="B5">
-        <v>50000</v>
+        <v>15563</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -11254,7 +11254,7 @@
         <v>170</v>
       </c>
       <c r="B6">
-        <v>50000</v>
+        <v>15563</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -11274,7 +11274,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11434,7 +11434,7 @@
   <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B123" sqref="B123:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13105,7 +13105,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -13180,7 +13180,8 @@
         <v>222</v>
       </c>
       <c r="C5" s="65">
-        <v>11900</v>
+        <f>C4*4/5</f>
+        <v>19040</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>223</v>
@@ -13194,7 +13195,8 @@
         <v>222</v>
       </c>
       <c r="C6" s="65">
-        <v>0</v>
+        <f>C4*3/5</f>
+        <v>14280</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>223</v>
@@ -13208,7 +13210,8 @@
         <v>222</v>
       </c>
       <c r="C7" s="65">
-        <v>0</v>
+        <f>C4*2/5</f>
+        <v>9520</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>223</v>
@@ -13222,7 +13225,8 @@
         <v>222</v>
       </c>
       <c r="C8" s="65">
-        <v>0</v>
+        <f>C4*1/5</f>
+        <v>4760</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>223</v>
